--- a/CoreRulebook/Data/Potions/ingredients.xlsx
+++ b/CoreRulebook/Data/Potions/ingredients.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HPRPG\CoreRulebook\Data\Potions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B09E63-DAB1-4531-8640-C1A6161D60B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CB76C6-F6F3-40A0-A21A-BC8D455DAA67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ingredients" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="263">
   <si>
     <t>Name</t>
   </si>
@@ -819,6 +819,12 @@
   </si>
   <si>
     <t xml:space="preserve">The result of magical experimentation on a muggle plant - the result is an unusually resilient weed which can grow almost anywhere. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dew harvested by naked virgins from only the purest oak leaves, just as the first rays of morning infuse them. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Once considered sacred by the ancient egyptians, these contain a surprising amount of magical power for a mundane beetle. </t>
   </si>
 </sst>
 </file>
@@ -1171,8 +1177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A126" sqref="A126"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1237,16 +1243,16 @@
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D65" si="0">IF(T4&gt;0,T4,"")</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J2">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="K2">
         <v>5</v>
       </c>
       <c r="L2">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="M2">
         <v>100</v>
@@ -1255,13 +1261,13 @@
         <v>4</v>
       </c>
       <c r="O2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="P2">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="Q2">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="R2">
         <v>1000</v>
@@ -1324,48 +1330,48 @@
         <v>1000</v>
       </c>
       <c r="J4">
-        <f>IF($C2=J$3,J$2,0)</f>
+        <f t="shared" ref="J4:R4" si="1">IF($C2=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K4">
-        <f>IF($C2=K$3,K$2,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L4">
-        <f>IF($C2=L$3,L$2,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M4">
-        <f>IF($C2=M$3,M$2,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N4">
-        <f>IF($C2=N$3,N$2,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O4">
-        <f>IF($C2=O$3,O$2,0)</f>
-        <v>15</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="P4">
-        <f>IF($C2=P$3,P$2,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q4">
-        <f>IF($C2=Q$3,Q$2,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R4">
-        <f>IF($C2=R$3,R$2,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S4">
-        <f>IF(ISBLANK(C2),-J4,0)</f>
+        <f t="shared" ref="S4:S35" si="2">IF(ISBLANK(C2),-J4,0)</f>
         <v>0</v>
       </c>
       <c r="T4">
-        <f t="shared" ref="T4:T67" si="1">SUM(J4:S4)</f>
-        <v>15</v>
+        <f t="shared" ref="T4:T67" si="3">SUM(J4:S4)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
@@ -1383,47 +1389,47 @@
         <v>4</v>
       </c>
       <c r="J5">
-        <f>IF($C3=J$3,J$2,0)</f>
+        <f t="shared" ref="J5:R5" si="4">IF($C3=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K5">
-        <f>IF($C3=K$3,K$2,0)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="L5">
-        <f>IF($C3=L$3,L$2,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M5">
-        <f>IF($C3=M$3,M$2,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N5">
-        <f>IF($C3=N$3,N$2,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O5">
-        <f>IF($C3=O$3,O$2,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P5">
-        <f>IF($C3=P$3,P$2,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q5">
-        <f>IF($C3=Q$3,Q$2,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R5">
-        <f>IF($C3=R$3,R$2,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S5">
-        <f>IF(ISBLANK(C3),-J5,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -1439,50 +1445,50 @@
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="J6">
-        <f>IF($C4=J$3,J$2,0)</f>
+        <f t="shared" ref="J6:R6" si="5">IF($C4=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K6">
-        <f>IF($C4=K$3,K$2,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L6">
-        <f>IF($C4=L$3,L$2,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M6">
-        <f>IF($C4=M$3,M$2,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N6">
-        <f>IF($C4=N$3,N$2,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O6">
-        <f>IF($C4=O$3,O$2,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P6">
-        <f>IF($C4=P$3,P$2,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q6">
-        <f>IF($C4=Q$3,Q$2,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R6">
-        <f>IF($C4=R$3,R$2,0)</f>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="S6">
-        <f>IF(ISBLANK(C4),-J6,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1000</v>
       </c>
     </row>
@@ -1498,50 +1504,50 @@
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="J7">
-        <f>IF($C5=J$3,J$2,0)</f>
+        <f t="shared" ref="J7:R7" si="6">IF($C5=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K7">
-        <f>IF($C5=K$3,K$2,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L7">
-        <f>IF($C5=L$3,L$2,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M7">
-        <f>IF($C5=M$3,M$2,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N7">
-        <f>IF($C5=N$3,N$2,0)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="O7">
-        <f>IF($C5=O$3,O$2,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P7">
-        <f>IF($C5=P$3,P$2,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q7">
-        <f>IF($C5=Q$3,Q$2,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R7">
-        <f>IF($C5=R$3,R$2,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S7">
-        <f>IF(ISBLANK(C5),-J7,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -1557,51 +1563,51 @@
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J8">
-        <f>IF($C6=J$3,J$2,0)</f>
+        <f t="shared" ref="J8:R8" si="7">IF($C6=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K8">
-        <f>IF($C6=K$3,K$2,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L8">
-        <f>IF($C6=L$3,L$2,0)</f>
-        <v>35</v>
+        <f t="shared" si="7"/>
+        <v>25</v>
       </c>
       <c r="M8">
-        <f>IF($C6=M$3,M$2,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N8">
-        <f>IF($C6=N$3,N$2,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O8">
-        <f>IF($C6=O$3,O$2,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P8">
-        <f>IF($C6=P$3,P$2,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q8">
-        <f>IF($C6=Q$3,Q$2,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R8">
-        <f>IF($C6=R$3,R$2,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S8">
-        <f>IF(ISBLANK(C6),-J8,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T8">
-        <f t="shared" si="1"/>
-        <v>35</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
@@ -1616,51 +1622,51 @@
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="J9">
-        <f>IF($C7=J$3,J$2,0)</f>
-        <v>0.5</v>
+        <f t="shared" ref="J9:R9" si="8">IF($C7=J$3,J$2,0)</f>
+        <v>0.3</v>
       </c>
       <c r="K9">
-        <f>IF($C7=K$3,K$2,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L9">
-        <f>IF($C7=L$3,L$2,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M9">
-        <f>IF($C7=M$3,M$2,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N9">
-        <f>IF($C7=N$3,N$2,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O9">
-        <f>IF($C7=O$3,O$2,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P9">
-        <f>IF($C7=P$3,P$2,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q9">
-        <f>IF($C7=Q$3,Q$2,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R9">
-        <f>IF($C7=R$3,R$2,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S9">
-        <f>IF(ISBLANK(C7),-J9,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T9">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
+        <f t="shared" si="3"/>
+        <v>0.3</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
@@ -1678,48 +1684,48 @@
         <v>5</v>
       </c>
       <c r="J10">
-        <f>IF($C8=J$3,J$2,0)</f>
+        <f t="shared" ref="J10:R10" si="9">IF($C8=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K10">
-        <f>IF($C8=K$3,K$2,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L10">
-        <f>IF($C8=L$3,L$2,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M10">
-        <f>IF($C8=M$3,M$2,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N10">
-        <f>IF($C8=N$3,N$2,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O10">
-        <f>IF($C8=O$3,O$2,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P10">
-        <f>IF($C8=P$3,P$2,0)</f>
-        <v>40</v>
+        <f t="shared" si="9"/>
+        <v>34</v>
       </c>
       <c r="Q10">
-        <f>IF($C8=Q$3,Q$2,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R10">
-        <f>IF($C8=R$3,R$2,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S10">
-        <f>IF(ISBLANK(C8),-J10,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T10">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <f t="shared" si="3"/>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
@@ -1737,48 +1743,48 @@
         <v>1000</v>
       </c>
       <c r="J11">
-        <f>IF($C9=J$3,J$2,0)</f>
+        <f t="shared" ref="J11:R11" si="10">IF($C9=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K11">
-        <f>IF($C9=K$3,K$2,0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L11">
-        <f>IF($C9=L$3,L$2,0)</f>
-        <v>35</v>
+        <f t="shared" si="10"/>
+        <v>25</v>
       </c>
       <c r="M11">
-        <f>IF($C9=M$3,M$2,0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N11">
-        <f>IF($C9=N$3,N$2,0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O11">
-        <f>IF($C9=O$3,O$2,0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P11">
-        <f>IF($C9=P$3,P$2,0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q11">
-        <f>IF($C9=Q$3,Q$2,0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R11">
-        <f>IF($C9=R$3,R$2,0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S11">
-        <f>IF(ISBLANK(C9),-J11,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T11">
-        <f t="shared" si="1"/>
-        <v>35</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
@@ -1796,47 +1802,47 @@
         <v>5</v>
       </c>
       <c r="J12">
-        <f>IF($C10=J$3,J$2,0)</f>
+        <f t="shared" ref="J12:R12" si="11">IF($C10=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K12">
-        <f>IF($C10=K$3,K$2,0)</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="L12">
-        <f>IF($C10=L$3,L$2,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M12">
-        <f>IF($C10=M$3,M$2,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N12">
-        <f>IF($C10=N$3,N$2,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O12">
-        <f>IF($C10=O$3,O$2,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P12">
-        <f>IF($C10=P$3,P$2,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q12">
-        <f>IF($C10=Q$3,Q$2,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R12">
-        <f>IF($C10=R$3,R$2,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S12">
-        <f>IF(ISBLANK(C10),-J12,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -1852,50 +1858,50 @@
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="J13">
-        <f>IF($C11=J$3,J$2,0)</f>
+        <f t="shared" ref="J13:R13" si="12">IF($C11=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K13">
-        <f>IF($C11=K$3,K$2,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L13">
-        <f>IF($C11=L$3,L$2,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M13">
-        <f>IF($C11=M$3,M$2,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N13">
-        <f>IF($C11=N$3,N$2,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O13">
-        <f>IF($C11=O$3,O$2,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P13">
-        <f>IF($C11=P$3,P$2,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q13">
-        <f>IF($C11=Q$3,Q$2,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R13">
-        <f>IF($C11=R$3,R$2,0)</f>
+        <f t="shared" si="12"/>
         <v>1000</v>
       </c>
       <c r="S13">
-        <f>IF(ISBLANK(C11),-J13,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1000</v>
       </c>
     </row>
@@ -1911,50 +1917,50 @@
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J14">
-        <f>IF($C12=J$3,J$2,0)</f>
+        <f t="shared" ref="J14:R14" si="13">IF($C12=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K14">
-        <f>IF($C12=K$3,K$2,0)</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="L14">
-        <f>IF($C12=L$3,L$2,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M14">
-        <f>IF($C12=M$3,M$2,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N14">
-        <f>IF($C12=N$3,N$2,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O14">
-        <f>IF($C12=O$3,O$2,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P14">
-        <f>IF($C12=P$3,P$2,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q14">
-        <f>IF($C12=Q$3,Q$2,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R14">
-        <f>IF($C12=R$3,R$2,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S14">
-        <f>IF(ISBLANK(C12),-J14,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -1970,51 +1976,51 @@
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J15">
-        <f>IF($C13=J$3,J$2,0)</f>
+        <f t="shared" ref="J15:R15" si="14">IF($C13=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K15">
-        <f>IF($C13=K$3,K$2,0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L15">
-        <f>IF($C13=L$3,L$2,0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M15">
-        <f>IF($C13=M$3,M$2,0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N15">
-        <f>IF($C13=N$3,N$2,0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O15">
-        <f>IF($C13=O$3,O$2,0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P15">
-        <f>IF($C13=P$3,P$2,0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q15">
-        <f>IF($C13=Q$3,Q$2,0)</f>
-        <v>150</v>
+        <f t="shared" si="14"/>
+        <v>125</v>
       </c>
       <c r="R15">
-        <f>IF($C13=R$3,R$2,0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S15">
-        <f>IF(ISBLANK(C13),-J15,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T15">
-        <f t="shared" si="1"/>
-        <v>150</v>
+        <f t="shared" si="3"/>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
@@ -2032,48 +2038,48 @@
         <v>5</v>
       </c>
       <c r="J16">
-        <f>IF($C14=J$3,J$2,0)</f>
+        <f t="shared" ref="J16:R16" si="15">IF($C14=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K16">
-        <f>IF($C14=K$3,K$2,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L16">
-        <f>IF($C14=L$3,L$2,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M16">
-        <f>IF($C14=M$3,M$2,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N16">
-        <f>IF($C14=N$3,N$2,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O16">
-        <f>IF($C14=O$3,O$2,0)</f>
-        <v>15</v>
+        <f t="shared" si="15"/>
+        <v>10</v>
       </c>
       <c r="P16">
-        <f>IF($C14=P$3,P$2,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Q16">
-        <f>IF($C14=Q$3,Q$2,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R16">
-        <f>IF($C14=R$3,R$2,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="S16">
-        <f>IF(ISBLANK(C14),-J16,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T16">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
@@ -2088,51 +2094,51 @@
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J17">
-        <f>IF($C15=J$3,J$2,0)</f>
+        <f t="shared" ref="J17:R17" si="16">IF($C15=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K17">
-        <f>IF($C15=K$3,K$2,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L17">
-        <f>IF($C15=L$3,L$2,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M17">
-        <f>IF($C15=M$3,M$2,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N17">
-        <f>IF($C15=N$3,N$2,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O17">
-        <f>IF($C15=O$3,O$2,0)</f>
-        <v>15</v>
+        <f t="shared" si="16"/>
+        <v>10</v>
       </c>
       <c r="P17">
-        <f>IF($C15=P$3,P$2,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q17">
-        <f>IF($C15=Q$3,Q$2,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R17">
-        <f>IF($C15=R$3,R$2,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S17">
-        <f>IF(ISBLANK(C15),-J17,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T17">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
@@ -2147,50 +2153,50 @@
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J18">
-        <f>IF($C16=J$3,J$2,0)</f>
+        <f t="shared" ref="J18:R18" si="17">IF($C16=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K18">
-        <f>IF($C16=K$3,K$2,0)</f>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="L18">
-        <f>IF($C16=L$3,L$2,0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M18">
-        <f>IF($C16=M$3,M$2,0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N18">
-        <f>IF($C16=N$3,N$2,0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O18">
-        <f>IF($C16=O$3,O$2,0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P18">
-        <f>IF($C16=P$3,P$2,0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q18">
-        <f>IF($C16=Q$3,Q$2,0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R18">
-        <f>IF($C16=R$3,R$2,0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="S18">
-        <f>IF(ISBLANK(C16),-J18,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -2209,48 +2215,48 @@
         <v>4</v>
       </c>
       <c r="J19">
-        <f>IF($C17=J$3,J$2,0)</f>
+        <f t="shared" ref="J19:R19" si="18">IF($C17=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K19">
-        <f>IF($C17=K$3,K$2,0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L19">
-        <f>IF($C17=L$3,L$2,0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M19">
-        <f>IF($C17=M$3,M$2,0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="N19">
-        <f>IF($C17=N$3,N$2,0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="O19">
-        <f>IF($C17=O$3,O$2,0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="P19">
-        <f>IF($C17=P$3,P$2,0)</f>
-        <v>40</v>
+        <f t="shared" si="18"/>
+        <v>34</v>
       </c>
       <c r="Q19">
-        <f>IF($C17=Q$3,Q$2,0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R19">
-        <f>IF($C17=R$3,R$2,0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="S19">
-        <f>IF(ISBLANK(C17),-J19,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T19">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <f t="shared" si="3"/>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
@@ -2268,48 +2274,48 @@
         <v>4</v>
       </c>
       <c r="J20">
-        <f>IF($C18=J$3,J$2,0)</f>
+        <f t="shared" ref="J20:R20" si="19">IF($C18=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K20">
-        <f>IF($C18=K$3,K$2,0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L20">
-        <f>IF($C18=L$3,L$2,0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M20">
-        <f>IF($C18=M$3,M$2,0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N20">
-        <f>IF($C18=N$3,N$2,0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="O20">
-        <f>IF($C18=O$3,O$2,0)</f>
-        <v>15</v>
+        <f t="shared" si="19"/>
+        <v>10</v>
       </c>
       <c r="P20">
-        <f>IF($C18=P$3,P$2,0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q20">
-        <f>IF($C18=Q$3,Q$2,0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="R20">
-        <f>IF($C18=R$3,R$2,0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="S20">
-        <f>IF(ISBLANK(C18),-J20,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T20">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
@@ -2324,50 +2330,50 @@
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="J21">
-        <f>IF($C19=J$3,J$2,0)</f>
+        <f t="shared" ref="J21:R21" si="20">IF($C19=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K21">
-        <f>IF($C19=K$3,K$2,0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L21">
-        <f>IF($C19=L$3,L$2,0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M21">
-        <f>IF($C19=M$3,M$2,0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N21">
-        <f>IF($C19=N$3,N$2,0)</f>
+        <f t="shared" si="20"/>
         <v>4</v>
       </c>
       <c r="O21">
-        <f>IF($C19=O$3,O$2,0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="P21">
-        <f>IF($C19=P$3,P$2,0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Q21">
-        <f>IF($C19=Q$3,Q$2,0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="R21">
-        <f>IF($C19=R$3,R$2,0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="S21">
-        <f>IF(ISBLANK(C19),-J21,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -2383,50 +2389,50 @@
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="J22">
-        <f>IF($C20=J$3,J$2,0)</f>
+        <f t="shared" ref="J22:R22" si="21">IF($C20=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K22">
-        <f>IF($C20=K$3,K$2,0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L22">
-        <f>IF($C20=L$3,L$2,0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M22">
-        <f>IF($C20=M$3,M$2,0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N22">
-        <f>IF($C20=N$3,N$2,0)</f>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="O22">
-        <f>IF($C20=O$3,O$2,0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="P22">
-        <f>IF($C20=P$3,P$2,0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Q22">
-        <f>IF($C20=Q$3,Q$2,0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="R22">
-        <f>IF($C20=R$3,R$2,0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="S22">
-        <f>IF(ISBLANK(C20),-J22,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -2442,51 +2448,51 @@
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J23">
-        <f>IF($C21=J$3,J$2,0)</f>
-        <v>0.5</v>
+        <f t="shared" ref="J23:R23" si="22">IF($C21=J$3,J$2,0)</f>
+        <v>0.3</v>
       </c>
       <c r="K23">
-        <f>IF($C21=K$3,K$2,0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L23">
-        <f>IF($C21=L$3,L$2,0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M23">
-        <f>IF($C21=M$3,M$2,0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N23">
-        <f>IF($C21=N$3,N$2,0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O23">
-        <f>IF($C21=O$3,O$2,0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P23">
-        <f>IF($C21=P$3,P$2,0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Q23">
-        <f>IF($C21=Q$3,Q$2,0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="R23">
-        <f>IF($C21=R$3,R$2,0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="S23">
-        <f>IF(ISBLANK(C21),-J23,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T23">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
+        <f t="shared" si="3"/>
+        <v>0.3</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
@@ -2501,51 +2507,51 @@
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="J24">
-        <f>IF($C22=J$3,J$2,0)</f>
+        <f t="shared" ref="J24:R24" si="23">IF($C22=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K24">
-        <f>IF($C22=K$3,K$2,0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L24">
-        <f>IF($C22=L$3,L$2,0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M24">
-        <f>IF($C22=M$3,M$2,0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N24">
-        <f>IF($C22=N$3,N$2,0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="O24">
-        <f>IF($C22=O$3,O$2,0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="P24">
-        <f>IF($C22=P$3,P$2,0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q24">
-        <f>IF($C22=Q$3,Q$2,0)</f>
-        <v>150</v>
+        <f t="shared" si="23"/>
+        <v>125</v>
       </c>
       <c r="R24">
-        <f>IF($C22=R$3,R$2,0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="S24">
-        <f>IF(ISBLANK(C22),-J24,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T24">
-        <f t="shared" si="1"/>
-        <v>150</v>
+        <f t="shared" si="3"/>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
@@ -2563,48 +2569,48 @@
         <v>5</v>
       </c>
       <c r="J25">
-        <f>IF($C23=J$3,J$2,0)</f>
+        <f t="shared" ref="J25:R25" si="24">IF($C23=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K25">
-        <f>IF($C23=K$3,K$2,0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="L25">
-        <f>IF($C23=L$3,L$2,0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M25">
-        <f>IF($C23=M$3,M$2,0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N25">
-        <f>IF($C23=N$3,N$2,0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="O25">
-        <f>IF($C23=O$3,O$2,0)</f>
-        <v>15</v>
+        <f t="shared" si="24"/>
+        <v>10</v>
       </c>
       <c r="P25">
-        <f>IF($C23=P$3,P$2,0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Q25">
-        <f>IF($C23=Q$3,Q$2,0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R25">
-        <f>IF($C23=R$3,R$2,0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="S25">
-        <f>IF(ISBLANK(C23),-J25,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T25">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
@@ -2619,51 +2625,51 @@
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="J26">
-        <f>IF($C24=J$3,J$2,0)</f>
-        <v>0.5</v>
+        <f t="shared" ref="J26:R26" si="25">IF($C24=J$3,J$2,0)</f>
+        <v>0.3</v>
       </c>
       <c r="K26">
-        <f>IF($C24=K$3,K$2,0)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L26">
-        <f>IF($C24=L$3,L$2,0)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="M26">
-        <f>IF($C24=M$3,M$2,0)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N26">
-        <f>IF($C24=N$3,N$2,0)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="O26">
-        <f>IF($C24=O$3,O$2,0)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="P26">
-        <f>IF($C24=P$3,P$2,0)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q26">
-        <f>IF($C24=Q$3,Q$2,0)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="R26">
-        <f>IF($C24=R$3,R$2,0)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S26">
-        <f>IF(ISBLANK(C24),-J26,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T26">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
+        <f t="shared" si="3"/>
+        <v>0.3</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
@@ -2678,50 +2684,50 @@
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="J27">
-        <f>IF($C25=J$3,J$2,0)</f>
+        <f t="shared" ref="J27:R27" si="26">IF($C25=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K27">
-        <f>IF($C25=K$3,K$2,0)</f>
+        <f t="shared" si="26"/>
         <v>5</v>
       </c>
       <c r="L27">
-        <f>IF($C25=L$3,L$2,0)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="M27">
-        <f>IF($C25=M$3,M$2,0)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="N27">
-        <f>IF($C25=N$3,N$2,0)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O27">
-        <f>IF($C25=O$3,O$2,0)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="P27">
-        <f>IF($C25=P$3,P$2,0)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Q27">
-        <f>IF($C25=Q$3,Q$2,0)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R27">
-        <f>IF($C25=R$3,R$2,0)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="S27">
-        <f>IF(ISBLANK(C25),-J27,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -2737,51 +2743,51 @@
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="J28">
-        <f>IF($C26=J$3,J$2,0)</f>
-        <v>0.5</v>
+        <f t="shared" ref="J28:R28" si="27">IF($C26=J$3,J$2,0)</f>
+        <v>0.3</v>
       </c>
       <c r="K28">
-        <f>IF($C26=K$3,K$2,0)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="L28">
-        <f>IF($C26=L$3,L$2,0)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="M28">
-        <f>IF($C26=M$3,M$2,0)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N28">
-        <f>IF($C26=N$3,N$2,0)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="O28">
-        <f>IF($C26=O$3,O$2,0)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P28">
-        <f>IF($C26=P$3,P$2,0)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Q28">
-        <f>IF($C26=Q$3,Q$2,0)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="R28">
-        <f>IF($C26=R$3,R$2,0)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="S28">
-        <f>IF(ISBLANK(C26),-J28,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T28">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
+        <f t="shared" si="3"/>
+        <v>0.3</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
@@ -2796,51 +2802,51 @@
       </c>
       <c r="D29">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J29">
-        <f>IF($C27=J$3,J$2,0)</f>
+        <f t="shared" ref="J29:R29" si="28">IF($C27=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K29">
-        <f>IF($C27=K$3,K$2,0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="L29">
-        <f>IF($C27=L$3,L$2,0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="M29">
-        <f>IF($C27=M$3,M$2,0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N29">
-        <f>IF($C27=N$3,N$2,0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="O29">
-        <f>IF($C27=O$3,O$2,0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="P29">
-        <f>IF($C27=P$3,P$2,0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Q29">
-        <f>IF($C27=Q$3,Q$2,0)</f>
-        <v>150</v>
+        <f t="shared" si="28"/>
+        <v>125</v>
       </c>
       <c r="R29">
-        <f>IF($C27=R$3,R$2,0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="S29">
-        <f>IF(ISBLANK(C27),-J29,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T29">
-        <f t="shared" si="1"/>
-        <v>150</v>
+        <f t="shared" si="3"/>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
@@ -2858,48 +2864,48 @@
         <v>5</v>
       </c>
       <c r="J30">
-        <f>IF($C28=J$3,J$2,0)</f>
+        <f t="shared" ref="J30:R30" si="29">IF($C28=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K30">
-        <f>IF($C28=K$3,K$2,0)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L30">
-        <f>IF($C28=L$3,L$2,0)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="M30">
-        <f>IF($C28=M$3,M$2,0)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N30">
-        <f>IF($C28=N$3,N$2,0)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="O30">
-        <f>IF($C28=O$3,O$2,0)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="P30">
-        <f>IF($C28=P$3,P$2,0)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Q30">
-        <f>IF($C28=Q$3,Q$2,0)</f>
-        <v>150</v>
+        <f t="shared" si="29"/>
+        <v>125</v>
       </c>
       <c r="R30">
-        <f>IF($C28=R$3,R$2,0)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="S30">
-        <f>IF(ISBLANK(C28),-J30,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T30">
-        <f t="shared" si="1"/>
-        <v>150</v>
+        <f t="shared" si="3"/>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
@@ -2914,51 +2920,51 @@
       </c>
       <c r="D31">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J31">
-        <f>IF($C29=J$3,J$2,0)</f>
+        <f t="shared" ref="J31:R31" si="30">IF($C29=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K31">
-        <f>IF($C29=K$3,K$2,0)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="L31">
-        <f>IF($C29=L$3,L$2,0)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="M31">
-        <f>IF($C29=M$3,M$2,0)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="N31">
-        <f>IF($C29=N$3,N$2,0)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="O31">
-        <f>IF($C29=O$3,O$2,0)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="P31">
-        <f>IF($C29=P$3,P$2,0)</f>
-        <v>40</v>
+        <f t="shared" si="30"/>
+        <v>34</v>
       </c>
       <c r="Q31">
-        <f>IF($C29=Q$3,Q$2,0)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="R31">
-        <f>IF($C29=R$3,R$2,0)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="S31">
-        <f>IF(ISBLANK(C29),-J31,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T31">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <f t="shared" si="3"/>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
@@ -2973,50 +2979,50 @@
       </c>
       <c r="D32">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J32">
-        <f>IF($C30=J$3,J$2,0)</f>
+        <f t="shared" ref="J32:R32" si="31">IF($C30=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K32">
-        <f>IF($C30=K$3,K$2,0)</f>
+        <f t="shared" si="31"/>
         <v>5</v>
       </c>
       <c r="L32">
-        <f>IF($C30=L$3,L$2,0)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="M32">
-        <f>IF($C30=M$3,M$2,0)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N32">
-        <f>IF($C30=N$3,N$2,0)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="O32">
-        <f>IF($C30=O$3,O$2,0)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="P32">
-        <f>IF($C30=P$3,P$2,0)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="Q32">
-        <f>IF($C30=Q$3,Q$2,0)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="R32">
-        <f>IF($C30=R$3,R$2,0)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="S32">
-        <f>IF(ISBLANK(C30),-J32,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -3032,51 +3038,51 @@
       </c>
       <c r="D33">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="J33">
-        <f>IF($C31=J$3,J$2,0)</f>
+        <f t="shared" ref="J33:R33" si="32">IF($C31=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K33">
-        <f>IF($C31=K$3,K$2,0)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="L33">
-        <f>IF($C31=L$3,L$2,0)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="M33">
-        <f>IF($C31=M$3,M$2,0)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N33">
-        <f>IF($C31=N$3,N$2,0)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="O33">
-        <f>IF($C31=O$3,O$2,0)</f>
-        <v>15</v>
+        <f t="shared" si="32"/>
+        <v>10</v>
       </c>
       <c r="P33">
-        <f>IF($C31=P$3,P$2,0)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="Q33">
-        <f>IF($C31=Q$3,Q$2,0)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="R33">
-        <f>IF($C31=R$3,R$2,0)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="S33">
-        <f>IF(ISBLANK(C31),-J33,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T33">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
@@ -3091,51 +3097,51 @@
       </c>
       <c r="D34">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="J34">
-        <f>IF($C32=J$3,J$2,0)</f>
+        <f t="shared" ref="J34:R34" si="33">IF($C32=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K34">
-        <f>IF($C32=K$3,K$2,0)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="L34">
-        <f>IF($C32=L$3,L$2,0)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="M34">
-        <f>IF($C32=M$3,M$2,0)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N34">
-        <f>IF($C32=N$3,N$2,0)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="O34">
-        <f>IF($C32=O$3,O$2,0)</f>
-        <v>15</v>
+        <f t="shared" si="33"/>
+        <v>10</v>
       </c>
       <c r="P34">
-        <f>IF($C32=P$3,P$2,0)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Q34">
-        <f>IF($C32=Q$3,Q$2,0)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="R34">
-        <f>IF($C32=R$3,R$2,0)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="S34">
-        <f>IF(ISBLANK(C32),-J34,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T34">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
@@ -3150,51 +3156,51 @@
       </c>
       <c r="D35">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="J35">
-        <f>IF($C33=J$3,J$2,0)</f>
+        <f t="shared" ref="J35:R35" si="34">IF($C33=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K35">
-        <f>IF($C33=K$3,K$2,0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L35">
-        <f>IF($C33=L$3,L$2,0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="M35">
-        <f>IF($C33=M$3,M$2,0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="N35">
-        <f>IF($C33=N$3,N$2,0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="O35">
-        <f>IF($C33=O$3,O$2,0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="P35">
-        <f>IF($C33=P$3,P$2,0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Q35">
-        <f>IF($C33=Q$3,Q$2,0)</f>
-        <v>150</v>
+        <f t="shared" si="34"/>
+        <v>125</v>
       </c>
       <c r="R35">
-        <f>IF($C33=R$3,R$2,0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="S35">
-        <f>IF(ISBLANK(C33),-J35,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T35">
-        <f t="shared" si="1"/>
-        <v>150</v>
+        <f t="shared" si="3"/>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
@@ -3209,51 +3215,51 @@
       </c>
       <c r="D36">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="J36">
-        <f>IF($C34=J$3,J$2,0)</f>
+        <f t="shared" ref="J36:R36" si="35">IF($C34=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K36">
-        <f>IF($C34=K$3,K$2,0)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="L36">
-        <f>IF($C34=L$3,L$2,0)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="M36">
-        <f>IF($C34=M$3,M$2,0)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N36">
-        <f>IF($C34=N$3,N$2,0)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="O36">
-        <f>IF($C34=O$3,O$2,0)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="P36">
-        <f>IF($C34=P$3,P$2,0)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Q36">
-        <f>IF($C34=Q$3,Q$2,0)</f>
-        <v>150</v>
+        <f t="shared" si="35"/>
+        <v>125</v>
       </c>
       <c r="R36">
-        <f>IF($C34=R$3,R$2,0)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="S36">
-        <f>IF(ISBLANK(C34),-J36,0)</f>
+        <f t="shared" ref="S36:S67" si="36">IF(ISBLANK(C34),-J36,0)</f>
         <v>0</v>
       </c>
       <c r="T36">
-        <f t="shared" si="1"/>
-        <v>150</v>
+        <f t="shared" si="3"/>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
@@ -3268,51 +3274,51 @@
       </c>
       <c r="D37">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="J37">
-        <f>IF($C35=J$3,J$2,0)</f>
+        <f t="shared" ref="J37:R37" si="37">IF($C35=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K37">
-        <f>IF($C35=K$3,K$2,0)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="L37">
-        <f>IF($C35=L$3,L$2,0)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="M37">
-        <f>IF($C35=M$3,M$2,0)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N37">
-        <f>IF($C35=N$3,N$2,0)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="O37">
-        <f>IF($C35=O$3,O$2,0)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="P37">
-        <f>IF($C35=P$3,P$2,0)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="Q37">
-        <f>IF($C35=Q$3,Q$2,0)</f>
-        <v>150</v>
+        <f t="shared" si="37"/>
+        <v>125</v>
       </c>
       <c r="R37">
-        <f>IF($C35=R$3,R$2,0)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="S37">
-        <f>IF(ISBLANK(C35),-J37,0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="T37">
-        <f t="shared" si="1"/>
-        <v>150</v>
+        <f t="shared" si="3"/>
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
@@ -3327,51 +3333,51 @@
       </c>
       <c r="D38">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J38">
-        <f>IF($C36=J$3,J$2,0)</f>
+        <f t="shared" ref="J38:R38" si="38">IF($C36=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K38">
-        <f>IF($C36=K$3,K$2,0)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="L38">
-        <f>IF($C36=L$3,L$2,0)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="M38">
-        <f>IF($C36=M$3,M$2,0)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="N38">
-        <f>IF($C36=N$3,N$2,0)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="O38">
-        <f>IF($C36=O$3,O$2,0)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="P38">
-        <f>IF($C36=P$3,P$2,0)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="Q38">
-        <f>IF($C36=Q$3,Q$2,0)</f>
-        <v>150</v>
+        <f t="shared" si="38"/>
+        <v>125</v>
       </c>
       <c r="R38">
-        <f>IF($C36=R$3,R$2,0)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="S38">
-        <f>IF(ISBLANK(C36),-J38,0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="T38">
-        <f t="shared" si="1"/>
-        <v>150</v>
+        <f t="shared" si="3"/>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
@@ -3386,51 +3392,51 @@
       </c>
       <c r="D39">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="J39">
-        <f>IF($C37=J$3,J$2,0)</f>
+        <f t="shared" ref="J39:R39" si="39">IF($C37=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K39">
-        <f>IF($C37=K$3,K$2,0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="L39">
-        <f>IF($C37=L$3,L$2,0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="M39">
-        <f>IF($C37=M$3,M$2,0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N39">
-        <f>IF($C37=N$3,N$2,0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="O39">
-        <f>IF($C37=O$3,O$2,0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="P39">
-        <f>IF($C37=P$3,P$2,0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="Q39">
-        <f>IF($C37=Q$3,Q$2,0)</f>
-        <v>150</v>
+        <f t="shared" si="39"/>
+        <v>125</v>
       </c>
       <c r="R39">
-        <f>IF($C37=R$3,R$2,0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="S39">
-        <f>IF(ISBLANK(C37),-J39,0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="T39">
-        <f t="shared" si="1"/>
-        <v>150</v>
+        <f t="shared" si="3"/>
+        <v>125</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
@@ -3445,51 +3451,51 @@
       </c>
       <c r="D40">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="J40">
-        <f>IF($C38=J$3,J$2,0)</f>
+        <f t="shared" ref="J40:R40" si="40">IF($C38=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K40">
-        <f>IF($C38=K$3,K$2,0)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="L40">
-        <f>IF($C38=L$3,L$2,0)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="M40">
-        <f>IF($C38=M$3,M$2,0)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="N40">
-        <f>IF($C38=N$3,N$2,0)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="O40">
-        <f>IF($C38=O$3,O$2,0)</f>
-        <v>15</v>
+        <f t="shared" si="40"/>
+        <v>10</v>
       </c>
       <c r="P40">
-        <f>IF($C38=P$3,P$2,0)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="Q40">
-        <f>IF($C38=Q$3,Q$2,0)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="R40">
-        <f>IF($C38=R$3,R$2,0)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="S40">
-        <f>IF(ISBLANK(C38),-J40,0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="T40">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
@@ -3504,51 +3510,51 @@
       </c>
       <c r="D41">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J41">
-        <f>IF($C39=J$3,J$2,0)</f>
+        <f t="shared" ref="J41:R41" si="41">IF($C39=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K41">
-        <f>IF($C39=K$3,K$2,0)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="L41">
-        <f>IF($C39=L$3,L$2,0)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="M41">
-        <f>IF($C39=M$3,M$2,0)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N41">
-        <f>IF($C39=N$3,N$2,0)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="O41">
-        <f>IF($C39=O$3,O$2,0)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="P41">
-        <f>IF($C39=P$3,P$2,0)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Q41">
-        <f>IF($C39=Q$3,Q$2,0)</f>
-        <v>150</v>
+        <f t="shared" si="41"/>
+        <v>125</v>
       </c>
       <c r="R41">
-        <f>IF($C39=R$3,R$2,0)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="S41">
-        <f>IF(ISBLANK(C39),-J41,0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="T41">
-        <f t="shared" si="1"/>
-        <v>150</v>
+        <f t="shared" si="3"/>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
@@ -3563,51 +3569,51 @@
       </c>
       <c r="D42">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J42">
-        <f>IF($C40=J$3,J$2,0)</f>
-        <v>0.5</v>
+        <f t="shared" ref="J42:R42" si="42">IF($C40=J$3,J$2,0)</f>
+        <v>0.3</v>
       </c>
       <c r="K42">
-        <f>IF($C40=K$3,K$2,0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="L42">
-        <f>IF($C40=L$3,L$2,0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="M42">
-        <f>IF($C40=M$3,M$2,0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="N42">
-        <f>IF($C40=N$3,N$2,0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="O42">
-        <f>IF($C40=O$3,O$2,0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="P42">
-        <f>IF($C40=P$3,P$2,0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="Q42">
-        <f>IF($C40=Q$3,Q$2,0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="R42">
-        <f>IF($C40=R$3,R$2,0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="S42">
-        <f>IF(ISBLANK(C40),-J42,0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="T42">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
+        <f t="shared" si="3"/>
+        <v>0.3</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.2">
@@ -3622,51 +3628,51 @@
       </c>
       <c r="D43">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J43">
-        <f>IF($C41=J$3,J$2,0)</f>
+        <f t="shared" ref="J43:R43" si="43">IF($C41=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K43">
-        <f>IF($C41=K$3,K$2,0)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="L43">
-        <f>IF($C41=L$3,L$2,0)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="M43">
-        <f>IF($C41=M$3,M$2,0)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="N43">
-        <f>IF($C41=N$3,N$2,0)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="O43">
-        <f>IF($C41=O$3,O$2,0)</f>
-        <v>15</v>
+        <f t="shared" si="43"/>
+        <v>10</v>
       </c>
       <c r="P43">
-        <f>IF($C41=P$3,P$2,0)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="Q43">
-        <f>IF($C41=Q$3,Q$2,0)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="R43">
-        <f>IF($C41=R$3,R$2,0)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="S43">
-        <f>IF(ISBLANK(C41),-J43,0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="T43">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
@@ -3681,51 +3687,51 @@
       </c>
       <c r="D44">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="J44">
-        <f>IF($C42=J$3,J$2,0)</f>
+        <f t="shared" ref="J44:R44" si="44">IF($C42=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K44">
-        <f>IF($C42=K$3,K$2,0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="L44">
-        <f>IF($C42=L$3,L$2,0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="M44">
-        <f>IF($C42=M$3,M$2,0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="N44">
-        <f>IF($C42=N$3,N$2,0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="O44">
-        <f>IF($C42=O$3,O$2,0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="P44">
-        <f>IF($C42=P$3,P$2,0)</f>
-        <v>40</v>
+        <f t="shared" si="44"/>
+        <v>34</v>
       </c>
       <c r="Q44">
-        <f>IF($C42=Q$3,Q$2,0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="R44">
-        <f>IF($C42=R$3,R$2,0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="S44">
-        <f>IF(ISBLANK(C42),-J44,0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="T44">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <f t="shared" si="3"/>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.2">
@@ -3743,48 +3749,48 @@
         <v>4</v>
       </c>
       <c r="J45">
-        <f>IF($C43=J$3,J$2,0)</f>
+        <f t="shared" ref="J45:R45" si="45">IF($C43=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K45">
-        <f>IF($C43=K$3,K$2,0)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="L45">
-        <f>IF($C43=L$3,L$2,0)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="M45">
-        <f>IF($C43=M$3,M$2,0)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="N45">
-        <f>IF($C43=N$3,N$2,0)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="O45">
-        <f>IF($C43=O$3,O$2,0)</f>
-        <v>15</v>
+        <f t="shared" si="45"/>
+        <v>10</v>
       </c>
       <c r="P45">
-        <f>IF($C43=P$3,P$2,0)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="Q45">
-        <f>IF($C43=Q$3,Q$2,0)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="R45">
-        <f>IF($C43=R$3,R$2,0)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="S45">
-        <f>IF(ISBLANK(C43),-J45,0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="T45">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.2">
@@ -3799,51 +3805,51 @@
       </c>
       <c r="D46">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J46">
-        <f>IF($C44=J$3,J$2,0)</f>
-        <v>0.5</v>
+        <f t="shared" ref="J46:R46" si="46">IF($C44=J$3,J$2,0)</f>
+        <v>0.3</v>
       </c>
       <c r="K46">
-        <f>IF($C44=K$3,K$2,0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="L46">
-        <f>IF($C44=L$3,L$2,0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="M46">
-        <f>IF($C44=M$3,M$2,0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="N46">
-        <f>IF($C44=N$3,N$2,0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="O46">
-        <f>IF($C44=O$3,O$2,0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="P46">
-        <f>IF($C44=P$3,P$2,0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="Q46">
-        <f>IF($C44=Q$3,Q$2,0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="R46">
-        <f>IF($C44=R$3,R$2,0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="S46">
-        <f>IF(ISBLANK(C44),-J46,0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="T46">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
+        <f t="shared" si="3"/>
+        <v>0.3</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
@@ -3858,50 +3864,50 @@
       </c>
       <c r="D47">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="J47">
-        <f>IF($C45=J$3,J$2,0)</f>
+        <f t="shared" ref="J47:R47" si="47">IF($C45=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K47">
-        <f>IF($C45=K$3,K$2,0)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="L47">
-        <f>IF($C45=L$3,L$2,0)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="M47">
-        <f>IF($C45=M$3,M$2,0)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="N47">
-        <f>IF($C45=N$3,N$2,0)</f>
+        <f t="shared" si="47"/>
         <v>4</v>
       </c>
       <c r="O47">
-        <f>IF($C45=O$3,O$2,0)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="P47">
-        <f>IF($C45=P$3,P$2,0)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Q47">
-        <f>IF($C45=Q$3,Q$2,0)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="R47">
-        <f>IF($C45=R$3,R$2,0)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="S47">
-        <f>IF(ISBLANK(C45),-J47,0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="T47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -3917,51 +3923,51 @@
       </c>
       <c r="D48">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J48">
-        <f>IF($C46=J$3,J$2,0)</f>
+        <f t="shared" ref="J48:R48" si="48">IF($C46=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K48">
-        <f>IF($C46=K$3,K$2,0)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="L48">
-        <f>IF($C46=L$3,L$2,0)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="M48">
-        <f>IF($C46=M$3,M$2,0)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="N48">
-        <f>IF($C46=N$3,N$2,0)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="O48">
-        <f>IF($C46=O$3,O$2,0)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="P48">
-        <f>IF($C46=P$3,P$2,0)</f>
-        <v>40</v>
+        <f t="shared" si="48"/>
+        <v>34</v>
       </c>
       <c r="Q48">
-        <f>IF($C46=Q$3,Q$2,0)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="R48">
-        <f>IF($C46=R$3,R$2,0)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="S48">
-        <f>IF(ISBLANK(C46),-J48,0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="T48">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <f t="shared" si="3"/>
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
@@ -3976,51 +3982,51 @@
       </c>
       <c r="D49">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="J49">
-        <f>IF($C47=J$3,J$2,0)</f>
+        <f t="shared" ref="J49:R49" si="49">IF($C47=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K49">
-        <f>IF($C47=K$3,K$2,0)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="L49">
-        <f>IF($C47=L$3,L$2,0)</f>
-        <v>35</v>
+        <f t="shared" si="49"/>
+        <v>25</v>
       </c>
       <c r="M49">
-        <f>IF($C47=M$3,M$2,0)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="N49">
-        <f>IF($C47=N$3,N$2,0)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="O49">
-        <f>IF($C47=O$3,O$2,0)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="P49">
-        <f>IF($C47=P$3,P$2,0)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Q49">
-        <f>IF($C47=Q$3,Q$2,0)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="R49">
-        <f>IF($C47=R$3,R$2,0)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="S49">
-        <f>IF(ISBLANK(C47),-J49,0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="T49">
-        <f t="shared" si="1"/>
-        <v>35</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.2">
@@ -4035,51 +4041,51 @@
       </c>
       <c r="D50">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J50">
-        <f>IF($C48=J$3,J$2,0)</f>
+        <f t="shared" ref="J50:R50" si="50">IF($C48=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K50">
-        <f>IF($C48=K$3,K$2,0)</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="L50">
-        <f>IF($C48=L$3,L$2,0)</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="M50">
-        <f>IF($C48=M$3,M$2,0)</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="N50">
-        <f>IF($C48=N$3,N$2,0)</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="O50">
-        <f>IF($C48=O$3,O$2,0)</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="P50">
-        <f>IF($C48=P$3,P$2,0)</f>
-        <v>40</v>
+        <f t="shared" si="50"/>
+        <v>34</v>
       </c>
       <c r="Q50">
-        <f>IF($C48=Q$3,Q$2,0)</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="R50">
-        <f>IF($C48=R$3,R$2,0)</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="S50">
-        <f>IF(ISBLANK(C48),-J50,0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="T50">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <f t="shared" si="3"/>
+        <v>34</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.2">
@@ -4097,48 +4103,48 @@
         <v>100</v>
       </c>
       <c r="J51">
-        <f>IF($C49=J$3,J$2,0)</f>
-        <v>0.5</v>
+        <f t="shared" ref="J51:R51" si="51">IF($C49=J$3,J$2,0)</f>
+        <v>0.3</v>
       </c>
       <c r="K51">
-        <f>IF($C49=K$3,K$2,0)</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="L51">
-        <f>IF($C49=L$3,L$2,0)</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="M51">
-        <f>IF($C49=M$3,M$2,0)</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="N51">
-        <f>IF($C49=N$3,N$2,0)</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="O51">
-        <f>IF($C49=O$3,O$2,0)</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="P51">
-        <f>IF($C49=P$3,P$2,0)</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="Q51">
-        <f>IF($C49=Q$3,Q$2,0)</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="R51">
-        <f>IF($C49=R$3,R$2,0)</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="S51">
-        <f>IF(ISBLANK(C49),-J51,0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="T51">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
+        <f t="shared" si="3"/>
+        <v>0.3</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.2">
@@ -4153,51 +4159,51 @@
       </c>
       <c r="D52">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J52">
-        <f>IF($C50=J$3,J$2,0)</f>
+        <f t="shared" ref="J52:R52" si="52">IF($C50=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K52">
-        <f>IF($C50=K$3,K$2,0)</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="L52">
-        <f>IF($C50=L$3,L$2,0)</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="M52">
-        <f>IF($C50=M$3,M$2,0)</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="N52">
-        <f>IF($C50=N$3,N$2,0)</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="O52">
-        <f>IF($C50=O$3,O$2,0)</f>
-        <v>15</v>
+        <f t="shared" si="52"/>
+        <v>10</v>
       </c>
       <c r="P52">
-        <f>IF($C50=P$3,P$2,0)</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="Q52">
-        <f>IF($C50=Q$3,Q$2,0)</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="R52">
-        <f>IF($C50=R$3,R$2,0)</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="S52">
-        <f>IF(ISBLANK(C50),-J52,0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="T52">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.2">
@@ -4212,50 +4218,50 @@
       </c>
       <c r="D53">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J53">
-        <f>IF($C51=J$3,J$2,0)</f>
+        <f t="shared" ref="J53:R53" si="53">IF($C51=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K53">
-        <f>IF($C51=K$3,K$2,0)</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="L53">
-        <f>IF($C51=L$3,L$2,0)</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="M53">
-        <f>IF($C51=M$3,M$2,0)</f>
+        <f t="shared" si="53"/>
         <v>100</v>
       </c>
       <c r="N53">
-        <f>IF($C51=N$3,N$2,0)</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="O53">
-        <f>IF($C51=O$3,O$2,0)</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="P53">
-        <f>IF($C51=P$3,P$2,0)</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="Q53">
-        <f>IF($C51=Q$3,Q$2,0)</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="R53">
-        <f>IF($C51=R$3,R$2,0)</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="S53">
-        <f>IF(ISBLANK(C51),-J53,0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="T53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
     </row>
@@ -4271,51 +4277,51 @@
       </c>
       <c r="D54">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="J54">
-        <f>IF($C52=J$3,J$2,0)</f>
+        <f t="shared" ref="J54:R54" si="54">IF($C52=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K54">
-        <f>IF($C52=K$3,K$2,0)</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="L54">
-        <f>IF($C52=L$3,L$2,0)</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="M54">
-        <f>IF($C52=M$3,M$2,0)</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="N54">
-        <f>IF($C52=N$3,N$2,0)</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="O54">
-        <f>IF($C52=O$3,O$2,0)</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="P54">
-        <f>IF($C52=P$3,P$2,0)</f>
-        <v>40</v>
+        <f t="shared" si="54"/>
+        <v>34</v>
       </c>
       <c r="Q54">
-        <f>IF($C52=Q$3,Q$2,0)</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="R54">
-        <f>IF($C52=R$3,R$2,0)</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="S54">
-        <f>IF(ISBLANK(C52),-J54,0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="T54">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <f t="shared" si="3"/>
+        <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.2">
@@ -4330,51 +4336,51 @@
       </c>
       <c r="D55">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="J55">
-        <f>IF($C53=J$3,J$2,0)</f>
+        <f t="shared" ref="J55:R55" si="55">IF($C53=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K55">
-        <f>IF($C53=K$3,K$2,0)</f>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="L55">
-        <f>IF($C53=L$3,L$2,0)</f>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="M55">
-        <f>IF($C53=M$3,M$2,0)</f>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="N55">
-        <f>IF($C53=N$3,N$2,0)</f>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="O55">
-        <f>IF($C53=O$3,O$2,0)</f>
-        <v>15</v>
+        <f t="shared" si="55"/>
+        <v>10</v>
       </c>
       <c r="P55">
-        <f>IF($C53=P$3,P$2,0)</f>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="Q55">
-        <f>IF($C53=Q$3,Q$2,0)</f>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="R55">
-        <f>IF($C53=R$3,R$2,0)</f>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="S55">
-        <f>IF(ISBLANK(C53),-J55,0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="T55">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.2">
@@ -4389,51 +4395,51 @@
       </c>
       <c r="D56">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J56">
-        <f>IF($C54=J$3,J$2,0)</f>
+        <f t="shared" ref="J56:R56" si="56">IF($C54=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K56">
-        <f>IF($C54=K$3,K$2,0)</f>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="L56">
-        <f>IF($C54=L$3,L$2,0)</f>
-        <v>35</v>
+        <f t="shared" si="56"/>
+        <v>25</v>
       </c>
       <c r="M56">
-        <f>IF($C54=M$3,M$2,0)</f>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="N56">
-        <f>IF($C54=N$3,N$2,0)</f>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="O56">
-        <f>IF($C54=O$3,O$2,0)</f>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="P56">
-        <f>IF($C54=P$3,P$2,0)</f>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="Q56">
-        <f>IF($C54=Q$3,Q$2,0)</f>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="R56">
-        <f>IF($C54=R$3,R$2,0)</f>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="S56">
-        <f>IF(ISBLANK(C54),-J56,0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="T56">
-        <f t="shared" si="1"/>
-        <v>35</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.2">
@@ -4451,48 +4457,48 @@
         <v>4</v>
       </c>
       <c r="J57">
-        <f>IF($C55=J$3,J$2,0)</f>
+        <f t="shared" ref="J57:R57" si="57">IF($C55=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K57">
-        <f>IF($C55=K$3,K$2,0)</f>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="L57">
-        <f>IF($C55=L$3,L$2,0)</f>
-        <v>35</v>
+        <f t="shared" si="57"/>
+        <v>25</v>
       </c>
       <c r="M57">
-        <f>IF($C55=M$3,M$2,0)</f>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="N57">
-        <f>IF($C55=N$3,N$2,0)</f>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="O57">
-        <f>IF($C55=O$3,O$2,0)</f>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="P57">
-        <f>IF($C55=P$3,P$2,0)</f>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="Q57">
-        <f>IF($C55=Q$3,Q$2,0)</f>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="R57">
-        <f>IF($C55=R$3,R$2,0)</f>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="S57">
-        <f>IF(ISBLANK(C55),-J57,0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="T57">
-        <f t="shared" si="1"/>
-        <v>35</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.2">
@@ -4510,48 +4516,48 @@
         <v>4</v>
       </c>
       <c r="J58">
-        <f>IF($C56=J$3,J$2,0)</f>
+        <f t="shared" ref="J58:R58" si="58">IF($C56=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K58">
-        <f>IF($C56=K$3,K$2,0)</f>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="L58">
-        <f>IF($C56=L$3,L$2,0)</f>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="M58">
-        <f>IF($C56=M$3,M$2,0)</f>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="N58">
-        <f>IF($C56=N$3,N$2,0)</f>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="O58">
-        <f>IF($C56=O$3,O$2,0)</f>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="P58">
-        <f>IF($C56=P$3,P$2,0)</f>
-        <v>40</v>
+        <f t="shared" si="58"/>
+        <v>34</v>
       </c>
       <c r="Q58">
-        <f>IF($C56=Q$3,Q$2,0)</f>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="R58">
-        <f>IF($C56=R$3,R$2,0)</f>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="S58">
-        <f>IF(ISBLANK(C56),-J58,0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="T58">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <f t="shared" si="3"/>
+        <v>34</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.2">
@@ -4569,47 +4575,47 @@
         <v>5</v>
       </c>
       <c r="J59">
-        <f>IF($C57=J$3,J$2,0)</f>
+        <f t="shared" ref="J59:R59" si="59">IF($C57=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K59">
-        <f>IF($C57=K$3,K$2,0)</f>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="L59">
-        <f>IF($C57=L$3,L$2,0)</f>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="M59">
-        <f>IF($C57=M$3,M$2,0)</f>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="N59">
-        <f>IF($C57=N$3,N$2,0)</f>
+        <f t="shared" si="59"/>
         <v>4</v>
       </c>
       <c r="O59">
-        <f>IF($C57=O$3,O$2,0)</f>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="P59">
-        <f>IF($C57=P$3,P$2,0)</f>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="Q59">
-        <f>IF($C57=Q$3,Q$2,0)</f>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="R59">
-        <f>IF($C57=R$3,R$2,0)</f>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="S59">
-        <f>IF(ISBLANK(C57),-J59,0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="T59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -4625,50 +4631,50 @@
       </c>
       <c r="D60">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J60">
-        <f>IF($C58=J$3,J$2,0)</f>
+        <f t="shared" ref="J60:R60" si="60">IF($C58=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K60">
-        <f>IF($C58=K$3,K$2,0)</f>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="L60">
-        <f>IF($C58=L$3,L$2,0)</f>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="M60">
-        <f>IF($C58=M$3,M$2,0)</f>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="N60">
-        <f>IF($C58=N$3,N$2,0)</f>
+        <f t="shared" si="60"/>
         <v>4</v>
       </c>
       <c r="O60">
-        <f>IF($C58=O$3,O$2,0)</f>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="P60">
-        <f>IF($C58=P$3,P$2,0)</f>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="Q60">
-        <f>IF($C58=Q$3,Q$2,0)</f>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="R60">
-        <f>IF($C58=R$3,R$2,0)</f>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="S60">
-        <f>IF(ISBLANK(C58),-J60,0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="T60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -4684,7 +4690,7 @@
       </c>
       <c r="D61">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G61" t="s">
         <v>241</v>
@@ -4693,47 +4699,47 @@
         <v>240</v>
       </c>
       <c r="J61">
-        <f>IF($C59=J$3,J$2,0)</f>
+        <f t="shared" ref="J61:R61" si="61">IF($C59=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K61">
-        <f>IF($C59=K$3,K$2,0)</f>
+        <f t="shared" si="61"/>
         <v>5</v>
       </c>
       <c r="L61">
-        <f>IF($C59=L$3,L$2,0)</f>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="M61">
-        <f>IF($C59=M$3,M$2,0)</f>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="N61">
-        <f>IF($C59=N$3,N$2,0)</f>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="O61">
-        <f>IF($C59=O$3,O$2,0)</f>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="P61">
-        <f>IF($C59=P$3,P$2,0)</f>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="Q61">
-        <f>IF($C59=Q$3,Q$2,0)</f>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="R61">
-        <f>IF($C59=R$3,R$2,0)</f>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="S61">
-        <f>IF(ISBLANK(C59),-J61,0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="T61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -4749,7 +4755,7 @@
       </c>
       <c r="D62">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F62" t="s">
         <v>238</v>
@@ -4761,48 +4767,48 @@
         <v>0</v>
       </c>
       <c r="J62">
-        <f>IF($C60=J$3,J$2,0)</f>
+        <f t="shared" ref="J62:R62" si="62">IF($C60=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K62">
-        <f>IF($C60=K$3,K$2,0)</f>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="L62">
-        <f>IF($C60=L$3,L$2,0)</f>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="M62">
-        <f>IF($C60=M$3,M$2,0)</f>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="N62">
-        <f>IF($C60=N$3,N$2,0)</f>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="O62">
-        <f>IF($C60=O$3,O$2,0)</f>
-        <v>15</v>
+        <f t="shared" si="62"/>
+        <v>10</v>
       </c>
       <c r="P62">
-        <f>IF($C60=P$3,P$2,0)</f>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="Q62">
-        <f>IF($C60=Q$3,Q$2,0)</f>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="R62">
-        <f>IF($C60=R$3,R$2,0)</f>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="S62">
-        <f>IF(ISBLANK(C60),-J62,0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="T62">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.2">
@@ -4817,7 +4823,7 @@
       </c>
       <c r="D63">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F63" t="s">
         <v>237</v>
@@ -4829,48 +4835,48 @@
         <v>1</v>
       </c>
       <c r="J63">
-        <f>IF($C61=J$3,J$2,0)</f>
+        <f t="shared" ref="J63:R63" si="63">IF($C61=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K63">
-        <f>IF($C61=K$3,K$2,0)</f>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="L63">
-        <f>IF($C61=L$3,L$2,0)</f>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="M63">
-        <f>IF($C61=M$3,M$2,0)</f>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="N63">
-        <f>IF($C61=N$3,N$2,0)</f>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="O63">
-        <f>IF($C61=O$3,O$2,0)</f>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="P63">
-        <f>IF($C61=P$3,P$2,0)</f>
-        <v>40</v>
+        <f t="shared" si="63"/>
+        <v>34</v>
       </c>
       <c r="Q63">
-        <f>IF($C61=Q$3,Q$2,0)</f>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="R63">
-        <f>IF($C61=R$3,R$2,0)</f>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="S63">
-        <f>IF(ISBLANK(C61),-J63,0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="T63">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <f t="shared" si="3"/>
+        <v>34</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.2">
@@ -4885,7 +4891,7 @@
       </c>
       <c r="D64">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="F64" t="s">
         <v>242</v>
@@ -4897,48 +4903,48 @@
         <v>2</v>
       </c>
       <c r="J64">
-        <f>IF($C62=J$3,J$2,0)</f>
+        <f t="shared" ref="J64:R64" si="64">IF($C62=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K64">
-        <f>IF($C62=K$3,K$2,0)</f>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="L64">
-        <f>IF($C62=L$3,L$2,0)</f>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="M64">
-        <f>IF($C62=M$3,M$2,0)</f>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="N64">
-        <f>IF($C62=N$3,N$2,0)</f>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="O64">
-        <f>IF($C62=O$3,O$2,0)</f>
-        <v>15</v>
+        <f t="shared" si="64"/>
+        <v>10</v>
       </c>
       <c r="P64">
-        <f>IF($C62=P$3,P$2,0)</f>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="Q64">
-        <f>IF($C62=Q$3,Q$2,0)</f>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="R64">
-        <f>IF($C62=R$3,R$2,0)</f>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="S64">
-        <f>IF(ISBLANK(C62),-J64,0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="T64">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.2">
@@ -4953,7 +4959,7 @@
       </c>
       <c r="D65">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="F65" t="s">
         <v>239</v>
@@ -4965,48 +4971,48 @@
         <v>3</v>
       </c>
       <c r="J65">
-        <f>IF($C63=J$3,J$2,0)</f>
+        <f t="shared" ref="J65:R65" si="65">IF($C63=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K65">
-        <f>IF($C63=K$3,K$2,0)</f>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="L65">
-        <f>IF($C63=L$3,L$2,0)</f>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="M65">
-        <f>IF($C63=M$3,M$2,0)</f>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="N65">
-        <f>IF($C63=N$3,N$2,0)</f>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="O65">
-        <f>IF($C63=O$3,O$2,0)</f>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="P65">
-        <f>IF($C63=P$3,P$2,0)</f>
-        <v>40</v>
+        <f t="shared" si="65"/>
+        <v>34</v>
       </c>
       <c r="Q65">
-        <f>IF($C63=Q$3,Q$2,0)</f>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="R65">
-        <f>IF($C63=R$3,R$2,0)</f>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="S65">
-        <f>IF(ISBLANK(C63),-J65,0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="T65">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <f t="shared" si="3"/>
+        <v>34</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.2">
@@ -5020,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="D66">
-        <f t="shared" ref="D66:D124" si="2">IF(T68&gt;0,T68,"")</f>
+        <f t="shared" ref="D66:D124" si="66">IF(T68&gt;0,T68,"")</f>
         <v>5</v>
       </c>
       <c r="F66" t="s">
@@ -5033,48 +5039,48 @@
         <v>4</v>
       </c>
       <c r="J66">
-        <f>IF($C64=J$3,J$2,0)</f>
-        <v>0.5</v>
+        <f t="shared" ref="J66:R66" si="67">IF($C64=J$3,J$2,0)</f>
+        <v>0.3</v>
       </c>
       <c r="K66">
-        <f>IF($C64=K$3,K$2,0)</f>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="L66">
-        <f>IF($C64=L$3,L$2,0)</f>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="M66">
-        <f>IF($C64=M$3,M$2,0)</f>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="N66">
-        <f>IF($C64=N$3,N$2,0)</f>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="O66">
-        <f>IF($C64=O$3,O$2,0)</f>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="P66">
-        <f>IF($C64=P$3,P$2,0)</f>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="Q66">
-        <f>IF($C64=Q$3,Q$2,0)</f>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="R66">
-        <f>IF($C64=R$3,R$2,0)</f>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="S66">
-        <f>IF(ISBLANK(C64),-J66,0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="T66">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
+        <f t="shared" si="3"/>
+        <v>0.3</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.2">
@@ -5088,8 +5094,8 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="66"/>
+        <v>0.3</v>
       </c>
       <c r="F67" t="s">
         <v>243</v>
@@ -5101,48 +5107,48 @@
         <v>5</v>
       </c>
       <c r="J67">
-        <f>IF($C65=J$3,J$2,0)</f>
-        <v>0.5</v>
+        <f t="shared" ref="J67:R67" si="68">IF($C65=J$3,J$2,0)</f>
+        <v>0.3</v>
       </c>
       <c r="K67">
-        <f>IF($C65=K$3,K$2,0)</f>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="L67">
-        <f>IF($C65=L$3,L$2,0)</f>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="M67">
-        <f>IF($C65=M$3,M$2,0)</f>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="N67">
-        <f>IF($C65=N$3,N$2,0)</f>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="O67">
-        <f>IF($C65=O$3,O$2,0)</f>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="P67">
-        <f>IF($C65=P$3,P$2,0)</f>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="Q67">
-        <f>IF($C65=Q$3,Q$2,0)</f>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="R67">
-        <f>IF($C65=R$3,R$2,0)</f>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="S67">
-        <f>IF(ISBLANK(C65),-J67,0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="T67">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
+        <f t="shared" si="3"/>
+        <v>0.3</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.2">
@@ -5156,8 +5162,8 @@
         <v>7</v>
       </c>
       <c r="D68">
-        <f t="shared" si="2"/>
-        <v>150</v>
+        <f t="shared" si="66"/>
+        <v>125</v>
       </c>
       <c r="F68" t="s">
         <v>244</v>
@@ -5169,47 +5175,47 @@
         <v>6</v>
       </c>
       <c r="J68">
-        <f>IF($C66=J$3,J$2,0)</f>
+        <f t="shared" ref="J68:R68" si="69">IF($C66=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K68">
-        <f>IF($C66=K$3,K$2,0)</f>
+        <f t="shared" si="69"/>
         <v>5</v>
       </c>
       <c r="L68">
-        <f>IF($C66=L$3,L$2,0)</f>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="M68">
-        <f>IF($C66=M$3,M$2,0)</f>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="N68">
-        <f>IF($C66=N$3,N$2,0)</f>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="O68">
-        <f>IF($C66=O$3,O$2,0)</f>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="P68">
-        <f>IF($C66=P$3,P$2,0)</f>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="Q68">
-        <f>IF($C66=Q$3,Q$2,0)</f>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="R68">
-        <f>IF($C66=R$3,R$2,0)</f>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="S68">
-        <f>IF(ISBLANK(C66),-J68,0)</f>
+        <f t="shared" ref="S68:S99" si="70">IF(ISBLANK(C66),-J68,0)</f>
         <v>0</v>
       </c>
       <c r="T68">
-        <f t="shared" ref="T68:T128" si="3">SUM(J68:S68)</f>
+        <f t="shared" ref="T68:T128" si="71">SUM(J68:S68)</f>
         <v>5</v>
       </c>
     </row>
@@ -5224,8 +5230,8 @@
         <v>5</v>
       </c>
       <c r="D69">
-        <f t="shared" si="2"/>
-        <v>15</v>
+        <f t="shared" si="66"/>
+        <v>10</v>
       </c>
       <c r="F69" t="s">
         <v>245</v>
@@ -5237,48 +5243,48 @@
         <v>7</v>
       </c>
       <c r="J69">
-        <f>IF($C67=J$3,J$2,0)</f>
-        <v>0.5</v>
+        <f t="shared" ref="J69:R69" si="72">IF($C67=J$3,J$2,0)</f>
+        <v>0.3</v>
       </c>
       <c r="K69">
-        <f>IF($C67=K$3,K$2,0)</f>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="L69">
-        <f>IF($C67=L$3,L$2,0)</f>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="M69">
-        <f>IF($C67=M$3,M$2,0)</f>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="N69">
-        <f>IF($C67=N$3,N$2,0)</f>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="O69">
-        <f>IF($C67=O$3,O$2,0)</f>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="P69">
-        <f>IF($C67=P$3,P$2,0)</f>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="Q69">
-        <f>IF($C67=Q$3,Q$2,0)</f>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="R69">
-        <f>IF($C67=R$3,R$2,0)</f>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="S69">
-        <f>IF(ISBLANK(C67),-J69,0)</f>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="T69">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
+        <f t="shared" si="71"/>
+        <v>0.3</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.2">
@@ -5292,7 +5298,7 @@
         <v>1</v>
       </c>
       <c r="D70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="66"/>
         <v>5</v>
       </c>
       <c r="F70" t="s">
@@ -5305,48 +5311,48 @@
         <v>8</v>
       </c>
       <c r="J70">
-        <f>IF($C68=J$3,J$2,0)</f>
+        <f t="shared" ref="J70:R70" si="73">IF($C68=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K70">
-        <f>IF($C68=K$3,K$2,0)</f>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="L70">
-        <f>IF($C68=L$3,L$2,0)</f>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="M70">
-        <f>IF($C68=M$3,M$2,0)</f>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="N70">
-        <f>IF($C68=N$3,N$2,0)</f>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="O70">
-        <f>IF($C68=O$3,O$2,0)</f>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="P70">
-        <f>IF($C68=P$3,P$2,0)</f>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="Q70">
-        <f>IF($C68=Q$3,Q$2,0)</f>
-        <v>150</v>
+        <f t="shared" si="73"/>
+        <v>125</v>
       </c>
       <c r="R70">
-        <f>IF($C68=R$3,R$2,0)</f>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="S70">
-        <f>IF(ISBLANK(C68),-J70,0)</f>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="T70">
-        <f t="shared" si="3"/>
-        <v>150</v>
+        <f t="shared" si="71"/>
+        <v>125</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.2">
@@ -5360,52 +5366,52 @@
         <v>7</v>
       </c>
       <c r="D71">
-        <f t="shared" si="2"/>
-        <v>150</v>
+        <f t="shared" si="66"/>
+        <v>125</v>
       </c>
       <c r="J71">
-        <f>IF($C69=J$3,J$2,0)</f>
+        <f t="shared" ref="J71:R71" si="74">IF($C69=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K71">
-        <f>IF($C69=K$3,K$2,0)</f>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="L71">
-        <f>IF($C69=L$3,L$2,0)</f>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="M71">
-        <f>IF($C69=M$3,M$2,0)</f>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="N71">
-        <f>IF($C69=N$3,N$2,0)</f>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="O71">
-        <f>IF($C69=O$3,O$2,0)</f>
-        <v>15</v>
+        <f t="shared" si="74"/>
+        <v>10</v>
       </c>
       <c r="P71">
-        <f>IF($C69=P$3,P$2,0)</f>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="Q71">
-        <f>IF($C69=Q$3,Q$2,0)</f>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="R71">
-        <f>IF($C69=R$3,R$2,0)</f>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="S71">
-        <f>IF(ISBLANK(C69),-J71,0)</f>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="T71">
-        <f t="shared" si="3"/>
-        <v>15</v>
+        <f t="shared" si="71"/>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.2">
@@ -5419,51 +5425,51 @@
         <v>1</v>
       </c>
       <c r="D72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="66"/>
         <v>5</v>
       </c>
       <c r="J72">
-        <f>IF($C70=J$3,J$2,0)</f>
+        <f t="shared" ref="J72:R72" si="75">IF($C70=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K72">
-        <f>IF($C70=K$3,K$2,0)</f>
+        <f t="shared" si="75"/>
         <v>5</v>
       </c>
       <c r="L72">
-        <f>IF($C70=L$3,L$2,0)</f>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="M72">
-        <f>IF($C70=M$3,M$2,0)</f>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="N72">
-        <f>IF($C70=N$3,N$2,0)</f>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="O72">
-        <f>IF($C70=O$3,O$2,0)</f>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="P72">
-        <f>IF($C70=P$3,P$2,0)</f>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="Q72">
-        <f>IF($C70=Q$3,Q$2,0)</f>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="R72">
-        <f>IF($C70=R$3,R$2,0)</f>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="S72">
-        <f>IF(ISBLANK(C70),-J72,0)</f>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="T72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="71"/>
         <v>5</v>
       </c>
     </row>
@@ -5478,56 +5484,56 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="66"/>
+        <v>0.3</v>
       </c>
       <c r="E73">
         <f>AVERAGE(D2:D112)</f>
-        <v>77.472972972972968</v>
+        <v>78.27117117117119</v>
       </c>
       <c r="J73">
-        <f>IF($C71=J$3,J$2,0)</f>
+        <f t="shared" ref="J73:R73" si="76">IF($C71=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K73">
-        <f>IF($C71=K$3,K$2,0)</f>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="L73">
-        <f>IF($C71=L$3,L$2,0)</f>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="M73">
-        <f>IF($C71=M$3,M$2,0)</f>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="N73">
-        <f>IF($C71=N$3,N$2,0)</f>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="O73">
-        <f>IF($C71=O$3,O$2,0)</f>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="P73">
-        <f>IF($C71=P$3,P$2,0)</f>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="Q73">
-        <f>IF($C71=Q$3,Q$2,0)</f>
-        <v>150</v>
+        <f t="shared" si="76"/>
+        <v>125</v>
       </c>
       <c r="R73">
-        <f>IF($C71=R$3,R$2,0)</f>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="S73">
-        <f>IF(ISBLANK(C71),-J73,0)</f>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="T73">
-        <f t="shared" si="3"/>
-        <v>150</v>
+        <f t="shared" si="71"/>
+        <v>125</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.2">
@@ -5541,51 +5547,51 @@
         <v>6</v>
       </c>
       <c r="D74">
-        <f t="shared" si="2"/>
-        <v>40</v>
+        <f t="shared" si="66"/>
+        <v>34</v>
       </c>
       <c r="J74">
-        <f>IF($C72=J$3,J$2,0)</f>
+        <f t="shared" ref="J74:R74" si="77">IF($C72=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K74">
-        <f>IF($C72=K$3,K$2,0)</f>
+        <f t="shared" si="77"/>
         <v>5</v>
       </c>
       <c r="L74">
-        <f>IF($C72=L$3,L$2,0)</f>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="M74">
-        <f>IF($C72=M$3,M$2,0)</f>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="N74">
-        <f>IF($C72=N$3,N$2,0)</f>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="O74">
-        <f>IF($C72=O$3,O$2,0)</f>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="P74">
-        <f>IF($C72=P$3,P$2,0)</f>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="Q74">
-        <f>IF($C72=Q$3,Q$2,0)</f>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="R74">
-        <f>IF($C72=R$3,R$2,0)</f>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="S74">
-        <f>IF(ISBLANK(C72),-J74,0)</f>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="T74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="71"/>
         <v>5</v>
       </c>
     </row>
@@ -5597,55 +5603,55 @@
         <v>140</v>
       </c>
       <c r="C75">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D75">
-        <f t="shared" si="2"/>
-        <v>150</v>
+        <f t="shared" si="66"/>
+        <v>1000</v>
       </c>
       <c r="J75">
-        <f>IF($C73=J$3,J$2,0)</f>
-        <v>0.5</v>
+        <f t="shared" ref="J75:R75" si="78">IF($C73=J$3,J$2,0)</f>
+        <v>0.3</v>
       </c>
       <c r="K75">
-        <f>IF($C73=K$3,K$2,0)</f>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="L75">
-        <f>IF($C73=L$3,L$2,0)</f>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="M75">
-        <f>IF($C73=M$3,M$2,0)</f>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="N75">
-        <f>IF($C73=N$3,N$2,0)</f>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="O75">
-        <f>IF($C73=O$3,O$2,0)</f>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="P75">
-        <f>IF($C73=P$3,P$2,0)</f>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="Q75">
-        <f>IF($C73=Q$3,Q$2,0)</f>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="R75">
-        <f>IF($C73=R$3,R$2,0)</f>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="S75">
-        <f>IF(ISBLANK(C73),-J75,0)</f>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="T75">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
+        <f t="shared" si="71"/>
+        <v>0.3</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.2">
@@ -5659,52 +5665,52 @@
         <v>1</v>
       </c>
       <c r="D76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="66"/>
         <v>5</v>
       </c>
       <c r="J76">
-        <f>IF($C74=J$3,J$2,0)</f>
+        <f t="shared" ref="J76:R76" si="79">IF($C74=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K76">
-        <f>IF($C74=K$3,K$2,0)</f>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="L76">
-        <f>IF($C74=L$3,L$2,0)</f>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="M76">
-        <f>IF($C74=M$3,M$2,0)</f>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="N76">
-        <f>IF($C74=N$3,N$2,0)</f>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="O76">
-        <f>IF($C74=O$3,O$2,0)</f>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="P76">
-        <f>IF($C74=P$3,P$2,0)</f>
-        <v>40</v>
+        <f t="shared" si="79"/>
+        <v>34</v>
       </c>
       <c r="Q76">
-        <f>IF($C74=Q$3,Q$2,0)</f>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="R76">
-        <f>IF($C74=R$3,R$2,0)</f>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="S76">
-        <f>IF(ISBLANK(C74),-J76,0)</f>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="T76">
-        <f t="shared" si="3"/>
-        <v>40</v>
+        <f t="shared" si="71"/>
+        <v>34</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.2">
@@ -5718,52 +5724,52 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="66"/>
+        <v>0.3</v>
       </c>
       <c r="J77">
-        <f>IF($C75=J$3,J$2,0)</f>
+        <f t="shared" ref="J77:R77" si="80">IF($C75=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K77">
-        <f>IF($C75=K$3,K$2,0)</f>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="L77">
-        <f>IF($C75=L$3,L$2,0)</f>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="M77">
-        <f>IF($C75=M$3,M$2,0)</f>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="N77">
-        <f>IF($C75=N$3,N$2,0)</f>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="O77">
-        <f>IF($C75=O$3,O$2,0)</f>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="P77">
-        <f>IF($C75=P$3,P$2,0)</f>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="Q77">
-        <f>IF($C75=Q$3,Q$2,0)</f>
-        <v>150</v>
+        <f t="shared" si="80"/>
+        <v>0</v>
       </c>
       <c r="R77">
-        <f>IF($C75=R$3,R$2,0)</f>
-        <v>0</v>
+        <f t="shared" si="80"/>
+        <v>1000</v>
       </c>
       <c r="S77">
-        <f>IF(ISBLANK(C75),-J77,0)</f>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="T77">
-        <f t="shared" si="3"/>
-        <v>150</v>
+        <f t="shared" si="71"/>
+        <v>1000</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.2">
@@ -5777,51 +5783,51 @@
         <v>6</v>
       </c>
       <c r="D78">
-        <f t="shared" si="2"/>
-        <v>40</v>
+        <f t="shared" si="66"/>
+        <v>34</v>
       </c>
       <c r="J78">
-        <f>IF($C76=J$3,J$2,0)</f>
+        <f t="shared" ref="J78:R78" si="81">IF($C76=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K78">
-        <f>IF($C76=K$3,K$2,0)</f>
+        <f t="shared" si="81"/>
         <v>5</v>
       </c>
       <c r="L78">
-        <f>IF($C76=L$3,L$2,0)</f>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="M78">
-        <f>IF($C76=M$3,M$2,0)</f>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="N78">
-        <f>IF($C76=N$3,N$2,0)</f>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="O78">
-        <f>IF($C76=O$3,O$2,0)</f>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="P78">
-        <f>IF($C76=P$3,P$2,0)</f>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="Q78">
-        <f>IF($C76=Q$3,Q$2,0)</f>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="R78">
-        <f>IF($C76=R$3,R$2,0)</f>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="S78">
-        <f>IF(ISBLANK(C76),-J78,0)</f>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="T78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="71"/>
         <v>5</v>
       </c>
     </row>
@@ -5836,52 +5842,52 @@
         <v>7</v>
       </c>
       <c r="D79">
-        <f t="shared" si="2"/>
-        <v>150</v>
+        <f t="shared" si="66"/>
+        <v>125</v>
       </c>
       <c r="J79">
-        <f>IF($C77=J$3,J$2,0)</f>
-        <v>0.5</v>
+        <f t="shared" ref="J79:R79" si="82">IF($C77=J$3,J$2,0)</f>
+        <v>0.3</v>
       </c>
       <c r="K79">
-        <f>IF($C77=K$3,K$2,0)</f>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="L79">
-        <f>IF($C77=L$3,L$2,0)</f>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="M79">
-        <f>IF($C77=M$3,M$2,0)</f>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="N79">
-        <f>IF($C77=N$3,N$2,0)</f>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="O79">
-        <f>IF($C77=O$3,O$2,0)</f>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="P79">
-        <f>IF($C77=P$3,P$2,0)</f>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="Q79">
-        <f>IF($C77=Q$3,Q$2,0)</f>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="R79">
-        <f>IF($C77=R$3,R$2,0)</f>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="S79">
-        <f>IF(ISBLANK(C77),-J79,0)</f>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="T79">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
+        <f t="shared" si="71"/>
+        <v>0.3</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.2">
@@ -5895,52 +5901,52 @@
         <v>5</v>
       </c>
       <c r="D80">
-        <f t="shared" si="2"/>
-        <v>15</v>
+        <f t="shared" si="66"/>
+        <v>10</v>
       </c>
       <c r="J80">
-        <f>IF($C78=J$3,J$2,0)</f>
+        <f t="shared" ref="J80:R80" si="83">IF($C78=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K80">
-        <f>IF($C78=K$3,K$2,0)</f>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="L80">
-        <f>IF($C78=L$3,L$2,0)</f>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="M80">
-        <f>IF($C78=M$3,M$2,0)</f>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="N80">
-        <f>IF($C78=N$3,N$2,0)</f>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="O80">
-        <f>IF($C78=O$3,O$2,0)</f>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="P80">
-        <f>IF($C78=P$3,P$2,0)</f>
-        <v>40</v>
+        <f t="shared" si="83"/>
+        <v>34</v>
       </c>
       <c r="Q80">
-        <f>IF($C78=Q$3,Q$2,0)</f>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="R80">
-        <f>IF($C78=R$3,R$2,0)</f>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="S80">
-        <f>IF(ISBLANK(C78),-J80,0)</f>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="T80">
-        <f t="shared" si="3"/>
-        <v>40</v>
+        <f t="shared" si="71"/>
+        <v>34</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.2">
@@ -5954,52 +5960,52 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="66"/>
+        <v>0.3</v>
       </c>
       <c r="J81">
-        <f>IF($C79=J$3,J$2,0)</f>
+        <f t="shared" ref="J81:R81" si="84">IF($C79=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K81">
-        <f>IF($C79=K$3,K$2,0)</f>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="L81">
-        <f>IF($C79=L$3,L$2,0)</f>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="M81">
-        <f>IF($C79=M$3,M$2,0)</f>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="N81">
-        <f>IF($C79=N$3,N$2,0)</f>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="O81">
-        <f>IF($C79=O$3,O$2,0)</f>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="P81">
-        <f>IF($C79=P$3,P$2,0)</f>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="Q81">
-        <f>IF($C79=Q$3,Q$2,0)</f>
-        <v>150</v>
+        <f t="shared" si="84"/>
+        <v>125</v>
       </c>
       <c r="R81">
-        <f>IF($C79=R$3,R$2,0)</f>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="S81">
-        <f>IF(ISBLANK(C79),-J81,0)</f>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="T81">
-        <f t="shared" si="3"/>
-        <v>150</v>
+        <f t="shared" si="71"/>
+        <v>125</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.2">
@@ -6013,52 +6019,52 @@
         <v>6</v>
       </c>
       <c r="D82">
-        <f t="shared" si="2"/>
-        <v>40</v>
+        <f t="shared" si="66"/>
+        <v>34</v>
       </c>
       <c r="J82">
-        <f>IF($C80=J$3,J$2,0)</f>
+        <f t="shared" ref="J82:R82" si="85">IF($C80=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K82">
-        <f>IF($C80=K$3,K$2,0)</f>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="L82">
-        <f>IF($C80=L$3,L$2,0)</f>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="M82">
-        <f>IF($C80=M$3,M$2,0)</f>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="N82">
-        <f>IF($C80=N$3,N$2,0)</f>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="O82">
-        <f>IF($C80=O$3,O$2,0)</f>
-        <v>15</v>
+        <f t="shared" si="85"/>
+        <v>10</v>
       </c>
       <c r="P82">
-        <f>IF($C80=P$3,P$2,0)</f>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="Q82">
-        <f>IF($C80=Q$3,Q$2,0)</f>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="R82">
-        <f>IF($C80=R$3,R$2,0)</f>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="S82">
-        <f>IF(ISBLANK(C80),-J82,0)</f>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="T82">
-        <f t="shared" si="3"/>
-        <v>15</v>
+        <f t="shared" si="71"/>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.2">
@@ -6066,58 +6072,58 @@
         <v>155</v>
       </c>
       <c r="B83" t="s">
-        <v>156</v>
+        <v>261</v>
       </c>
       <c r="C83">
         <v>0</v>
       </c>
       <c r="D83">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="66"/>
+        <v>0.3</v>
       </c>
       <c r="J83">
-        <f>IF($C81=J$3,J$2,0)</f>
-        <v>0.5</v>
+        <f t="shared" ref="J83:R83" si="86">IF($C81=J$3,J$2,0)</f>
+        <v>0.3</v>
       </c>
       <c r="K83">
-        <f>IF($C81=K$3,K$2,0)</f>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="L83">
-        <f>IF($C81=L$3,L$2,0)</f>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="M83">
-        <f>IF($C81=M$3,M$2,0)</f>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="N83">
-        <f>IF($C81=N$3,N$2,0)</f>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="O83">
-        <f>IF($C81=O$3,O$2,0)</f>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="P83">
-        <f>IF($C81=P$3,P$2,0)</f>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="Q83">
-        <f>IF($C81=Q$3,Q$2,0)</f>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="R83">
-        <f>IF($C81=R$3,R$2,0)</f>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="S83">
-        <f>IF(ISBLANK(C81),-J83,0)</f>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="T83">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
+        <f t="shared" si="71"/>
+        <v>0.3</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.2">
@@ -6131,52 +6137,52 @@
         <v>5</v>
       </c>
       <c r="D84">
-        <f t="shared" si="2"/>
-        <v>15</v>
+        <f t="shared" si="66"/>
+        <v>10</v>
       </c>
       <c r="J84">
-        <f>IF($C82=J$3,J$2,0)</f>
+        <f t="shared" ref="J84:R84" si="87">IF($C82=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K84">
-        <f>IF($C82=K$3,K$2,0)</f>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="L84">
-        <f>IF($C82=L$3,L$2,0)</f>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="M84">
-        <f>IF($C82=M$3,M$2,0)</f>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="N84">
-        <f>IF($C82=N$3,N$2,0)</f>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="O84">
-        <f>IF($C82=O$3,O$2,0)</f>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="P84">
-        <f>IF($C82=P$3,P$2,0)</f>
-        <v>40</v>
+        <f t="shared" si="87"/>
+        <v>34</v>
       </c>
       <c r="Q84">
-        <f>IF($C82=Q$3,Q$2,0)</f>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="R84">
-        <f>IF($C82=R$3,R$2,0)</f>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="S84">
-        <f>IF(ISBLANK(C82),-J84,0)</f>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="T84">
-        <f t="shared" si="3"/>
-        <v>40</v>
+        <f t="shared" si="71"/>
+        <v>34</v>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.2">
@@ -6190,52 +6196,52 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="66"/>
+        <v>0.3</v>
       </c>
       <c r="J85">
-        <f>IF($C83=J$3,J$2,0)</f>
-        <v>0.5</v>
+        <f t="shared" ref="J85:R85" si="88">IF($C83=J$3,J$2,0)</f>
+        <v>0.3</v>
       </c>
       <c r="K85">
-        <f>IF($C83=K$3,K$2,0)</f>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="L85">
-        <f>IF($C83=L$3,L$2,0)</f>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="M85">
-        <f>IF($C83=M$3,M$2,0)</f>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="N85">
-        <f>IF($C83=N$3,N$2,0)</f>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="O85">
-        <f>IF($C83=O$3,O$2,0)</f>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="P85">
-        <f>IF($C83=P$3,P$2,0)</f>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="Q85">
-        <f>IF($C83=Q$3,Q$2,0)</f>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="R85">
-        <f>IF($C83=R$3,R$2,0)</f>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="S85">
-        <f>IF(ISBLANK(C83),-J85,0)</f>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="T85">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
+        <f t="shared" si="71"/>
+        <v>0.3</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.2">
@@ -6249,52 +6255,52 @@
         <v>6</v>
       </c>
       <c r="D86">
-        <f t="shared" si="2"/>
-        <v>40</v>
+        <f t="shared" si="66"/>
+        <v>34</v>
       </c>
       <c r="J86">
-        <f>IF($C84=J$3,J$2,0)</f>
+        <f t="shared" ref="J86:R86" si="89">IF($C84=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K86">
-        <f>IF($C84=K$3,K$2,0)</f>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="L86">
-        <f>IF($C84=L$3,L$2,0)</f>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="M86">
-        <f>IF($C84=M$3,M$2,0)</f>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="N86">
-        <f>IF($C84=N$3,N$2,0)</f>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="O86">
-        <f>IF($C84=O$3,O$2,0)</f>
-        <v>15</v>
+        <f t="shared" si="89"/>
+        <v>10</v>
       </c>
       <c r="P86">
-        <f>IF($C84=P$3,P$2,0)</f>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="Q86">
-        <f>IF($C84=Q$3,Q$2,0)</f>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="R86">
-        <f>IF($C84=R$3,R$2,0)</f>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="S86">
-        <f>IF(ISBLANK(C84),-J86,0)</f>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="T86">
-        <f t="shared" si="3"/>
-        <v>15</v>
+        <f t="shared" si="71"/>
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.2">
@@ -6308,52 +6314,52 @@
         <v>5</v>
       </c>
       <c r="D87">
-        <f t="shared" si="2"/>
-        <v>15</v>
+        <f t="shared" si="66"/>
+        <v>10</v>
       </c>
       <c r="J87">
-        <f>IF($C85=J$3,J$2,0)</f>
-        <v>0.5</v>
+        <f t="shared" ref="J87:R87" si="90">IF($C85=J$3,J$2,0)</f>
+        <v>0.3</v>
       </c>
       <c r="K87">
-        <f>IF($C85=K$3,K$2,0)</f>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="L87">
-        <f>IF($C85=L$3,L$2,0)</f>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="M87">
-        <f>IF($C85=M$3,M$2,0)</f>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="N87">
-        <f>IF($C85=N$3,N$2,0)</f>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="O87">
-        <f>IF($C85=O$3,O$2,0)</f>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="P87">
-        <f>IF($C85=P$3,P$2,0)</f>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="Q87">
-        <f>IF($C85=Q$3,Q$2,0)</f>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="R87">
-        <f>IF($C85=R$3,R$2,0)</f>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="S87">
-        <f>IF(ISBLANK(C85),-J87,0)</f>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="T87">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
+        <f t="shared" si="71"/>
+        <v>0.3</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.2">
@@ -6367,52 +6373,52 @@
         <v>7</v>
       </c>
       <c r="D88">
-        <f t="shared" si="2"/>
-        <v>150</v>
+        <f t="shared" si="66"/>
+        <v>125</v>
       </c>
       <c r="J88">
-        <f>IF($C86=J$3,J$2,0)</f>
+        <f t="shared" ref="J88:R88" si="91">IF($C86=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K88">
-        <f>IF($C86=K$3,K$2,0)</f>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="L88">
-        <f>IF($C86=L$3,L$2,0)</f>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="M88">
-        <f>IF($C86=M$3,M$2,0)</f>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="N88">
-        <f>IF($C86=N$3,N$2,0)</f>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="O88">
-        <f>IF($C86=O$3,O$2,0)</f>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="P88">
-        <f>IF($C86=P$3,P$2,0)</f>
-        <v>40</v>
+        <f t="shared" si="91"/>
+        <v>34</v>
       </c>
       <c r="Q88">
-        <f>IF($C86=Q$3,Q$2,0)</f>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="R88">
-        <f>IF($C86=R$3,R$2,0)</f>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="S88">
-        <f>IF(ISBLANK(C86),-J88,0)</f>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="T88">
-        <f t="shared" si="3"/>
-        <v>40</v>
+        <f t="shared" si="71"/>
+        <v>34</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.2">
@@ -6426,52 +6432,52 @@
         <v>8</v>
       </c>
       <c r="D89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="66"/>
         <v>1000</v>
       </c>
       <c r="J89">
-        <f>IF($C87=J$3,J$2,0)</f>
+        <f t="shared" ref="J89:R89" si="92">IF($C87=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K89">
-        <f>IF($C87=K$3,K$2,0)</f>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="L89">
-        <f>IF($C87=L$3,L$2,0)</f>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="M89">
-        <f>IF($C87=M$3,M$2,0)</f>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="N89">
-        <f>IF($C87=N$3,N$2,0)</f>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="O89">
-        <f>IF($C87=O$3,O$2,0)</f>
-        <v>15</v>
+        <f t="shared" si="92"/>
+        <v>10</v>
       </c>
       <c r="P89">
-        <f>IF($C87=P$3,P$2,0)</f>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="Q89">
-        <f>IF($C87=Q$3,Q$2,0)</f>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="R89">
-        <f>IF($C87=R$3,R$2,0)</f>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="S89">
-        <f>IF(ISBLANK(C87),-J89,0)</f>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="T89">
-        <f t="shared" si="3"/>
-        <v>15</v>
+        <f t="shared" si="71"/>
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.2">
@@ -6485,52 +6491,52 @@
         <v>7</v>
       </c>
       <c r="D90">
-        <f t="shared" si="2"/>
-        <v>150</v>
+        <f t="shared" si="66"/>
+        <v>125</v>
       </c>
       <c r="J90">
-        <f>IF($C88=J$3,J$2,0)</f>
+        <f t="shared" ref="J90:R90" si="93">IF($C88=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K90">
-        <f>IF($C88=K$3,K$2,0)</f>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="L90">
-        <f>IF($C88=L$3,L$2,0)</f>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="M90">
-        <f>IF($C88=M$3,M$2,0)</f>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="N90">
-        <f>IF($C88=N$3,N$2,0)</f>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="O90">
-        <f>IF($C88=O$3,O$2,0)</f>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="P90">
-        <f>IF($C88=P$3,P$2,0)</f>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="Q90">
-        <f>IF($C88=Q$3,Q$2,0)</f>
-        <v>150</v>
+        <f t="shared" si="93"/>
+        <v>125</v>
       </c>
       <c r="R90">
-        <f>IF($C88=R$3,R$2,0)</f>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="S90">
-        <f>IF(ISBLANK(C88),-J90,0)</f>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="T90">
-        <f t="shared" si="3"/>
-        <v>150</v>
+        <f t="shared" si="71"/>
+        <v>125</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.2">
@@ -6544,51 +6550,51 @@
         <v>2</v>
       </c>
       <c r="D91">
-        <f t="shared" si="2"/>
-        <v>35</v>
+        <f t="shared" si="66"/>
+        <v>25</v>
       </c>
       <c r="J91">
-        <f>IF($C89=J$3,J$2,0)</f>
+        <f t="shared" ref="J91:R91" si="94">IF($C89=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K91">
-        <f>IF($C89=K$3,K$2,0)</f>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="L91">
-        <f>IF($C89=L$3,L$2,0)</f>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="M91">
-        <f>IF($C89=M$3,M$2,0)</f>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="N91">
-        <f>IF($C89=N$3,N$2,0)</f>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="O91">
-        <f>IF($C89=O$3,O$2,0)</f>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="P91">
-        <f>IF($C89=P$3,P$2,0)</f>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="Q91">
-        <f>IF($C89=Q$3,Q$2,0)</f>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="R91">
-        <f>IF($C89=R$3,R$2,0)</f>
+        <f t="shared" si="94"/>
         <v>1000</v>
       </c>
       <c r="S91">
-        <f>IF(ISBLANK(C89),-J91,0)</f>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="T91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="71"/>
         <v>1000</v>
       </c>
     </row>
@@ -6603,52 +6609,52 @@
         <v>1</v>
       </c>
       <c r="D92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="66"/>
         <v>5</v>
       </c>
       <c r="J92">
-        <f>IF($C90=J$3,J$2,0)</f>
+        <f t="shared" ref="J92:R92" si="95">IF($C90=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K92">
-        <f>IF($C90=K$3,K$2,0)</f>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="L92">
-        <f>IF($C90=L$3,L$2,0)</f>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="M92">
-        <f>IF($C90=M$3,M$2,0)</f>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="N92">
-        <f>IF($C90=N$3,N$2,0)</f>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="O92">
-        <f>IF($C90=O$3,O$2,0)</f>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="P92">
-        <f>IF($C90=P$3,P$2,0)</f>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="Q92">
-        <f>IF($C90=Q$3,Q$2,0)</f>
-        <v>150</v>
+        <f t="shared" si="95"/>
+        <v>125</v>
       </c>
       <c r="R92">
-        <f>IF($C90=R$3,R$2,0)</f>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="S92">
-        <f>IF(ISBLANK(C90),-J92,0)</f>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="T92">
-        <f t="shared" si="3"/>
-        <v>150</v>
+        <f t="shared" si="71"/>
+        <v>125</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.2">
@@ -6662,52 +6668,52 @@
         <v>2</v>
       </c>
       <c r="D93">
-        <f t="shared" si="2"/>
-        <v>35</v>
+        <f t="shared" si="66"/>
+        <v>25</v>
       </c>
       <c r="J93">
-        <f>IF($C91=J$3,J$2,0)</f>
+        <f t="shared" ref="J93:R93" si="96">IF($C91=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K93">
-        <f>IF($C91=K$3,K$2,0)</f>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="L93">
-        <f>IF($C91=L$3,L$2,0)</f>
-        <v>35</v>
+        <f t="shared" si="96"/>
+        <v>25</v>
       </c>
       <c r="M93">
-        <f>IF($C91=M$3,M$2,0)</f>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="N93">
-        <f>IF($C91=N$3,N$2,0)</f>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="O93">
-        <f>IF($C91=O$3,O$2,0)</f>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="P93">
-        <f>IF($C91=P$3,P$2,0)</f>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="Q93">
-        <f>IF($C91=Q$3,Q$2,0)</f>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="R93">
-        <f>IF($C91=R$3,R$2,0)</f>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="S93">
-        <f>IF(ISBLANK(C91),-J93,0)</f>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="T93">
-        <f t="shared" si="3"/>
-        <v>35</v>
+        <f t="shared" si="71"/>
+        <v>25</v>
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.2">
@@ -6721,51 +6727,51 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="66"/>
+        <v>0.3</v>
       </c>
       <c r="J94">
-        <f>IF($C92=J$3,J$2,0)</f>
+        <f t="shared" ref="J94:R94" si="97">IF($C92=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K94">
-        <f>IF($C92=K$3,K$2,0)</f>
+        <f t="shared" si="97"/>
         <v>5</v>
       </c>
       <c r="L94">
-        <f>IF($C92=L$3,L$2,0)</f>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="M94">
-        <f>IF($C92=M$3,M$2,0)</f>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="N94">
-        <f>IF($C92=N$3,N$2,0)</f>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="O94">
-        <f>IF($C92=O$3,O$2,0)</f>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="P94">
-        <f>IF($C92=P$3,P$2,0)</f>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="Q94">
-        <f>IF($C92=Q$3,Q$2,0)</f>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="R94">
-        <f>IF($C92=R$3,R$2,0)</f>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="S94">
-        <f>IF(ISBLANK(C92),-J94,0)</f>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="T94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="71"/>
         <v>5</v>
       </c>
     </row>
@@ -6780,52 +6786,52 @@
         <v>8</v>
       </c>
       <c r="D95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="66"/>
         <v>1000</v>
       </c>
       <c r="J95">
-        <f>IF($C93=J$3,J$2,0)</f>
+        <f t="shared" ref="J95:R95" si="98">IF($C93=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K95">
-        <f>IF($C93=K$3,K$2,0)</f>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="L95">
-        <f>IF($C93=L$3,L$2,0)</f>
-        <v>35</v>
+        <f t="shared" si="98"/>
+        <v>25</v>
       </c>
       <c r="M95">
-        <f>IF($C93=M$3,M$2,0)</f>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="N95">
-        <f>IF($C93=N$3,N$2,0)</f>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="O95">
-        <f>IF($C93=O$3,O$2,0)</f>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="P95">
-        <f>IF($C93=P$3,P$2,0)</f>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="Q95">
-        <f>IF($C93=Q$3,Q$2,0)</f>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="R95">
-        <f>IF($C93=R$3,R$2,0)</f>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="S95">
-        <f>IF(ISBLANK(C93),-J95,0)</f>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="T95">
-        <f t="shared" si="3"/>
-        <v>35</v>
+        <f t="shared" si="71"/>
+        <v>25</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.2">
@@ -6839,52 +6845,52 @@
         <v>7</v>
       </c>
       <c r="D96">
-        <f t="shared" si="2"/>
-        <v>150</v>
+        <f t="shared" si="66"/>
+        <v>125</v>
       </c>
       <c r="J96">
-        <f>IF($C94=J$3,J$2,0)</f>
-        <v>0.5</v>
+        <f t="shared" ref="J96:R96" si="99">IF($C94=J$3,J$2,0)</f>
+        <v>0.3</v>
       </c>
       <c r="K96">
-        <f>IF($C94=K$3,K$2,0)</f>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="L96">
-        <f>IF($C94=L$3,L$2,0)</f>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="M96">
-        <f>IF($C94=M$3,M$2,0)</f>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="N96">
-        <f>IF($C94=N$3,N$2,0)</f>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="O96">
-        <f>IF($C94=O$3,O$2,0)</f>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="P96">
-        <f>IF($C94=P$3,P$2,0)</f>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="Q96">
-        <f>IF($C94=Q$3,Q$2,0)</f>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="R96">
-        <f>IF($C94=R$3,R$2,0)</f>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="S96">
-        <f>IF(ISBLANK(C94),-J96,0)</f>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="T96">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
+        <f t="shared" si="71"/>
+        <v>0.3</v>
       </c>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.2">
@@ -6898,51 +6904,51 @@
         <v>5</v>
       </c>
       <c r="D97">
-        <f t="shared" si="2"/>
-        <v>15</v>
+        <f t="shared" si="66"/>
+        <v>10</v>
       </c>
       <c r="J97">
-        <f>IF($C95=J$3,J$2,0)</f>
+        <f t="shared" ref="J97:R97" si="100">IF($C95=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K97">
-        <f>IF($C95=K$3,K$2,0)</f>
+        <f t="shared" si="100"/>
         <v>0</v>
       </c>
       <c r="L97">
-        <f>IF($C95=L$3,L$2,0)</f>
+        <f t="shared" si="100"/>
         <v>0</v>
       </c>
       <c r="M97">
-        <f>IF($C95=M$3,M$2,0)</f>
+        <f t="shared" si="100"/>
         <v>0</v>
       </c>
       <c r="N97">
-        <f>IF($C95=N$3,N$2,0)</f>
+        <f t="shared" si="100"/>
         <v>0</v>
       </c>
       <c r="O97">
-        <f>IF($C95=O$3,O$2,0)</f>
+        <f t="shared" si="100"/>
         <v>0</v>
       </c>
       <c r="P97">
-        <f>IF($C95=P$3,P$2,0)</f>
+        <f t="shared" si="100"/>
         <v>0</v>
       </c>
       <c r="Q97">
-        <f>IF($C95=Q$3,Q$2,0)</f>
+        <f t="shared" si="100"/>
         <v>0</v>
       </c>
       <c r="R97">
-        <f>IF($C95=R$3,R$2,0)</f>
+        <f t="shared" si="100"/>
         <v>1000</v>
       </c>
       <c r="S97">
-        <f>IF(ISBLANK(C95),-J97,0)</f>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="T97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="71"/>
         <v>1000</v>
       </c>
     </row>
@@ -6957,52 +6963,52 @@
         <v>4</v>
       </c>
       <c r="D98">
-        <f t="shared" si="2"/>
+        <f t="shared" si="66"/>
         <v>4</v>
       </c>
       <c r="J98">
-        <f>IF($C96=J$3,J$2,0)</f>
+        <f t="shared" ref="J98:R98" si="101">IF($C96=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K98">
-        <f>IF($C96=K$3,K$2,0)</f>
+        <f t="shared" si="101"/>
         <v>0</v>
       </c>
       <c r="L98">
-        <f>IF($C96=L$3,L$2,0)</f>
+        <f t="shared" si="101"/>
         <v>0</v>
       </c>
       <c r="M98">
-        <f>IF($C96=M$3,M$2,0)</f>
+        <f t="shared" si="101"/>
         <v>0</v>
       </c>
       <c r="N98">
-        <f>IF($C96=N$3,N$2,0)</f>
+        <f t="shared" si="101"/>
         <v>0</v>
       </c>
       <c r="O98">
-        <f>IF($C96=O$3,O$2,0)</f>
+        <f t="shared" si="101"/>
         <v>0</v>
       </c>
       <c r="P98">
-        <f>IF($C96=P$3,P$2,0)</f>
+        <f t="shared" si="101"/>
         <v>0</v>
       </c>
       <c r="Q98">
-        <f>IF($C96=Q$3,Q$2,0)</f>
-        <v>150</v>
+        <f t="shared" si="101"/>
+        <v>125</v>
       </c>
       <c r="R98">
-        <f>IF($C96=R$3,R$2,0)</f>
+        <f t="shared" si="101"/>
         <v>0</v>
       </c>
       <c r="S98">
-        <f>IF(ISBLANK(C96),-J98,0)</f>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="T98">
-        <f t="shared" si="3"/>
-        <v>150</v>
+        <f t="shared" si="71"/>
+        <v>125</v>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.2">
@@ -7016,52 +7022,52 @@
         <v>7</v>
       </c>
       <c r="D99">
-        <f t="shared" si="2"/>
-        <v>150</v>
+        <f t="shared" si="66"/>
+        <v>125</v>
       </c>
       <c r="J99">
-        <f>IF($C97=J$3,J$2,0)</f>
+        <f t="shared" ref="J99:R99" si="102">IF($C97=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K99">
-        <f>IF($C97=K$3,K$2,0)</f>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="L99">
-        <f>IF($C97=L$3,L$2,0)</f>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="M99">
-        <f>IF($C97=M$3,M$2,0)</f>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="N99">
-        <f>IF($C97=N$3,N$2,0)</f>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="O99">
-        <f>IF($C97=O$3,O$2,0)</f>
-        <v>15</v>
+        <f t="shared" si="102"/>
+        <v>10</v>
       </c>
       <c r="P99">
-        <f>IF($C97=P$3,P$2,0)</f>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="Q99">
-        <f>IF($C97=Q$3,Q$2,0)</f>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="R99">
-        <f>IF($C97=R$3,R$2,0)</f>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="S99">
-        <f>IF(ISBLANK(C97),-J99,0)</f>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="T99">
-        <f t="shared" si="3"/>
-        <v>15</v>
+        <f t="shared" si="71"/>
+        <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.2">
@@ -7075,51 +7081,51 @@
         <v>7</v>
       </c>
       <c r="D100">
-        <f t="shared" si="2"/>
-        <v>150</v>
+        <f t="shared" si="66"/>
+        <v>125</v>
       </c>
       <c r="J100">
-        <f>IF($C98=J$3,J$2,0)</f>
+        <f t="shared" ref="J100:R100" si="103">IF($C98=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K100">
-        <f>IF($C98=K$3,K$2,0)</f>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="L100">
-        <f>IF($C98=L$3,L$2,0)</f>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="M100">
-        <f>IF($C98=M$3,M$2,0)</f>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="N100">
-        <f>IF($C98=N$3,N$2,0)</f>
+        <f t="shared" si="103"/>
         <v>4</v>
       </c>
       <c r="O100">
-        <f>IF($C98=O$3,O$2,0)</f>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="P100">
-        <f>IF($C98=P$3,P$2,0)</f>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="Q100">
-        <f>IF($C98=Q$3,Q$2,0)</f>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="R100">
-        <f>IF($C98=R$3,R$2,0)</f>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="S100">
-        <f>IF(ISBLANK(C98),-J100,0)</f>
+        <f t="shared" ref="S100:S130" si="104">IF(ISBLANK(C98),-J100,0)</f>
         <v>0</v>
       </c>
       <c r="T100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="71"/>
         <v>4</v>
       </c>
     </row>
@@ -7134,52 +7140,52 @@
         <v>0</v>
       </c>
       <c r="D101">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="66"/>
+        <v>0.3</v>
       </c>
       <c r="J101">
-        <f>IF($C99=J$3,J$2,0)</f>
+        <f t="shared" ref="J101:R101" si="105">IF($C99=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K101">
-        <f>IF($C99=K$3,K$2,0)</f>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="L101">
-        <f>IF($C99=L$3,L$2,0)</f>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="M101">
-        <f>IF($C99=M$3,M$2,0)</f>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="N101">
-        <f>IF($C99=N$3,N$2,0)</f>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="O101">
-        <f>IF($C99=O$3,O$2,0)</f>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="P101">
-        <f>IF($C99=P$3,P$2,0)</f>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="Q101">
-        <f>IF($C99=Q$3,Q$2,0)</f>
-        <v>150</v>
+        <f t="shared" si="105"/>
+        <v>125</v>
       </c>
       <c r="R101">
-        <f>IF($C99=R$3,R$2,0)</f>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="S101">
-        <f>IF(ISBLANK(C99),-J101,0)</f>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="T101">
-        <f t="shared" si="3"/>
-        <v>150</v>
+        <f t="shared" si="71"/>
+        <v>125</v>
       </c>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.2">
@@ -7193,52 +7199,52 @@
         <v>6</v>
       </c>
       <c r="D102">
-        <f t="shared" si="2"/>
-        <v>40</v>
+        <f t="shared" si="66"/>
+        <v>34</v>
       </c>
       <c r="J102">
-        <f>IF($C100=J$3,J$2,0)</f>
+        <f t="shared" ref="J102:R102" si="106">IF($C100=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K102">
-        <f>IF($C100=K$3,K$2,0)</f>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="L102">
-        <f>IF($C100=L$3,L$2,0)</f>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="M102">
-        <f>IF($C100=M$3,M$2,0)</f>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="N102">
-        <f>IF($C100=N$3,N$2,0)</f>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="O102">
-        <f>IF($C100=O$3,O$2,0)</f>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="P102">
-        <f>IF($C100=P$3,P$2,0)</f>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="Q102">
-        <f>IF($C100=Q$3,Q$2,0)</f>
-        <v>150</v>
+        <f t="shared" si="106"/>
+        <v>125</v>
       </c>
       <c r="R102">
-        <f>IF($C100=R$3,R$2,0)</f>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="S102">
-        <f>IF(ISBLANK(C100),-J102,0)</f>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="T102">
-        <f t="shared" si="3"/>
-        <v>150</v>
+        <f t="shared" si="71"/>
+        <v>125</v>
       </c>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.2">
@@ -7252,108 +7258,111 @@
         <v>6</v>
       </c>
       <c r="D103">
-        <f t="shared" si="2"/>
-        <v>40</v>
+        <f t="shared" si="66"/>
+        <v>34</v>
       </c>
       <c r="J103">
-        <f>IF($C101=J$3,J$2,0)</f>
-        <v>0.5</v>
+        <f t="shared" ref="J103:R103" si="107">IF($C101=J$3,J$2,0)</f>
+        <v>0.3</v>
       </c>
       <c r="K103">
-        <f>IF($C101=K$3,K$2,0)</f>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="L103">
-        <f>IF($C101=L$3,L$2,0)</f>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="M103">
-        <f>IF($C101=M$3,M$2,0)</f>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="N103">
-        <f>IF($C101=N$3,N$2,0)</f>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="O103">
-        <f>IF($C101=O$3,O$2,0)</f>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="P103">
-        <f>IF($C101=P$3,P$2,0)</f>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="Q103">
-        <f>IF($C101=Q$3,Q$2,0)</f>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="R103">
-        <f>IF($C101=R$3,R$2,0)</f>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="S103">
-        <f>IF(ISBLANK(C101),-J103,0)</f>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="T103">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
+        <f t="shared" si="71"/>
+        <v>0.3</v>
       </c>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>196</v>
       </c>
+      <c r="B104" t="s">
+        <v>262</v>
+      </c>
       <c r="C104">
         <v>1</v>
       </c>
       <c r="D104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="66"/>
         <v>5</v>
       </c>
       <c r="J104">
-        <f>IF($C102=J$3,J$2,0)</f>
+        <f t="shared" ref="J104:R104" si="108">IF($C102=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K104">
-        <f>IF($C102=K$3,K$2,0)</f>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="L104">
-        <f>IF($C102=L$3,L$2,0)</f>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="M104">
-        <f>IF($C102=M$3,M$2,0)</f>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="N104">
-        <f>IF($C102=N$3,N$2,0)</f>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="O104">
-        <f>IF($C102=O$3,O$2,0)</f>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="P104">
-        <f>IF($C102=P$3,P$2,0)</f>
-        <v>40</v>
+        <f t="shared" si="108"/>
+        <v>34</v>
       </c>
       <c r="Q104">
-        <f>IF($C102=Q$3,Q$2,0)</f>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="R104">
-        <f>IF($C102=R$3,R$2,0)</f>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="S104">
-        <f>IF(ISBLANK(C102),-J104,0)</f>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="T104">
-        <f t="shared" si="3"/>
-        <v>40</v>
+        <f t="shared" si="71"/>
+        <v>34</v>
       </c>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.2">
@@ -7367,52 +7376,52 @@
         <v>6</v>
       </c>
       <c r="D105">
-        <f t="shared" si="2"/>
-        <v>40</v>
+        <f t="shared" si="66"/>
+        <v>34</v>
       </c>
       <c r="J105">
-        <f>IF($C103=J$3,J$2,0)</f>
+        <f t="shared" ref="J105:R105" si="109">IF($C103=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K105">
-        <f>IF($C103=K$3,K$2,0)</f>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="L105">
-        <f>IF($C103=L$3,L$2,0)</f>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="M105">
-        <f>IF($C103=M$3,M$2,0)</f>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="N105">
-        <f>IF($C103=N$3,N$2,0)</f>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="O105">
-        <f>IF($C103=O$3,O$2,0)</f>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="P105">
-        <f>IF($C103=P$3,P$2,0)</f>
-        <v>40</v>
+        <f t="shared" si="109"/>
+        <v>34</v>
       </c>
       <c r="Q105">
-        <f>IF($C103=Q$3,Q$2,0)</f>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="R105">
-        <f>IF($C103=R$3,R$2,0)</f>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="S105">
-        <f>IF(ISBLANK(C103),-J105,0)</f>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="T105">
-        <f t="shared" si="3"/>
-        <v>40</v>
+        <f t="shared" si="71"/>
+        <v>34</v>
       </c>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.2">
@@ -7426,51 +7435,51 @@
         <v>3</v>
       </c>
       <c r="D106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="66"/>
         <v>100</v>
       </c>
       <c r="J106">
-        <f>IF($C104=J$3,J$2,0)</f>
+        <f t="shared" ref="J106:R106" si="110">IF($C104=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K106">
-        <f>IF($C104=K$3,K$2,0)</f>
+        <f t="shared" si="110"/>
         <v>5</v>
       </c>
       <c r="L106">
-        <f>IF($C104=L$3,L$2,0)</f>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="M106">
-        <f>IF($C104=M$3,M$2,0)</f>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="N106">
-        <f>IF($C104=N$3,N$2,0)</f>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="O106">
-        <f>IF($C104=O$3,O$2,0)</f>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="P106">
-        <f>IF($C104=P$3,P$2,0)</f>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="Q106">
-        <f>IF($C104=Q$3,Q$2,0)</f>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="R106">
-        <f>IF($C104=R$3,R$2,0)</f>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="S106">
-        <f>IF(ISBLANK(C104),-J106,0)</f>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="T106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="71"/>
         <v>5</v>
       </c>
     </row>
@@ -7485,52 +7494,52 @@
         <v>2</v>
       </c>
       <c r="D107">
-        <f t="shared" si="2"/>
-        <v>35</v>
+        <f t="shared" si="66"/>
+        <v>25</v>
       </c>
       <c r="J107">
-        <f>IF($C105=J$3,J$2,0)</f>
+        <f t="shared" ref="J107:R107" si="111">IF($C105=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K107">
-        <f>IF($C105=K$3,K$2,0)</f>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="L107">
-        <f>IF($C105=L$3,L$2,0)</f>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="M107">
-        <f>IF($C105=M$3,M$2,0)</f>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="N107">
-        <f>IF($C105=N$3,N$2,0)</f>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="O107">
-        <f>IF($C105=O$3,O$2,0)</f>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="P107">
-        <f>IF($C105=P$3,P$2,0)</f>
-        <v>40</v>
+        <f t="shared" si="111"/>
+        <v>34</v>
       </c>
       <c r="Q107">
-        <f>IF($C105=Q$3,Q$2,0)</f>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="R107">
-        <f>IF($C105=R$3,R$2,0)</f>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="S107">
-        <f>IF(ISBLANK(C105),-J107,0)</f>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="T107">
-        <f t="shared" si="3"/>
-        <v>40</v>
+        <f t="shared" si="71"/>
+        <v>34</v>
       </c>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.2">
@@ -7544,51 +7553,51 @@
         <v>4</v>
       </c>
       <c r="D108">
-        <f t="shared" si="2"/>
+        <f t="shared" si="66"/>
         <v>4</v>
       </c>
       <c r="J108">
-        <f>IF($C106=J$3,J$2,0)</f>
+        <f t="shared" ref="J108:R108" si="112">IF($C106=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K108">
-        <f>IF($C106=K$3,K$2,0)</f>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="L108">
-        <f>IF($C106=L$3,L$2,0)</f>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="M108">
-        <f>IF($C106=M$3,M$2,0)</f>
+        <f t="shared" si="112"/>
         <v>100</v>
       </c>
       <c r="N108">
-        <f>IF($C106=N$3,N$2,0)</f>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="O108">
-        <f>IF($C106=O$3,O$2,0)</f>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="P108">
-        <f>IF($C106=P$3,P$2,0)</f>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="Q108">
-        <f>IF($C106=Q$3,Q$2,0)</f>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="R108">
-        <f>IF($C106=R$3,R$2,0)</f>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="S108">
-        <f>IF(ISBLANK(C106),-J108,0)</f>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="T108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="71"/>
         <v>100</v>
       </c>
     </row>
@@ -7603,52 +7612,52 @@
         <v>6</v>
       </c>
       <c r="D109">
-        <f t="shared" si="2"/>
-        <v>40</v>
+        <f t="shared" si="66"/>
+        <v>34</v>
       </c>
       <c r="J109">
-        <f>IF($C107=J$3,J$2,0)</f>
+        <f t="shared" ref="J109:R109" si="113">IF($C107=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K109">
-        <f>IF($C107=K$3,K$2,0)</f>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="L109">
-        <f>IF($C107=L$3,L$2,0)</f>
-        <v>35</v>
+        <f t="shared" si="113"/>
+        <v>25</v>
       </c>
       <c r="M109">
-        <f>IF($C107=M$3,M$2,0)</f>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="N109">
-        <f>IF($C107=N$3,N$2,0)</f>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="O109">
-        <f>IF($C107=O$3,O$2,0)</f>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="P109">
-        <f>IF($C107=P$3,P$2,0)</f>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="Q109">
-        <f>IF($C107=Q$3,Q$2,0)</f>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="R109">
-        <f>IF($C107=R$3,R$2,0)</f>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="S109">
-        <f>IF(ISBLANK(C107),-J109,0)</f>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="T109">
-        <f t="shared" si="3"/>
-        <v>35</v>
+        <f t="shared" si="71"/>
+        <v>25</v>
       </c>
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.2">
@@ -7662,51 +7671,51 @@
         <v>1</v>
       </c>
       <c r="D110">
-        <f t="shared" si="2"/>
+        <f t="shared" si="66"/>
         <v>5</v>
       </c>
       <c r="J110">
-        <f>IF($C108=J$3,J$2,0)</f>
+        <f t="shared" ref="J110:R110" si="114">IF($C108=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K110">
-        <f>IF($C108=K$3,K$2,0)</f>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="L110">
-        <f>IF($C108=L$3,L$2,0)</f>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="M110">
-        <f>IF($C108=M$3,M$2,0)</f>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="N110">
-        <f>IF($C108=N$3,N$2,0)</f>
+        <f t="shared" si="114"/>
         <v>4</v>
       </c>
       <c r="O110">
-        <f>IF($C108=O$3,O$2,0)</f>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="P110">
-        <f>IF($C108=P$3,P$2,0)</f>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="Q110">
-        <f>IF($C108=Q$3,Q$2,0)</f>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="R110">
-        <f>IF($C108=R$3,R$2,0)</f>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="S110">
-        <f>IF(ISBLANK(C108),-J110,0)</f>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="T110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="71"/>
         <v>4</v>
       </c>
     </row>
@@ -7721,52 +7730,52 @@
         <v>4</v>
       </c>
       <c r="D111">
-        <f t="shared" si="2"/>
+        <f t="shared" si="66"/>
         <v>4</v>
       </c>
       <c r="J111">
-        <f>IF($C109=J$3,J$2,0)</f>
+        <f t="shared" ref="J111:R111" si="115">IF($C109=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K111">
-        <f>IF($C109=K$3,K$2,0)</f>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="L111">
-        <f>IF($C109=L$3,L$2,0)</f>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="M111">
-        <f>IF($C109=M$3,M$2,0)</f>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="N111">
-        <f>IF($C109=N$3,N$2,0)</f>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="O111">
-        <f>IF($C109=O$3,O$2,0)</f>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="P111">
-        <f>IF($C109=P$3,P$2,0)</f>
-        <v>40</v>
+        <f t="shared" si="115"/>
+        <v>34</v>
       </c>
       <c r="Q111">
-        <f>IF($C109=Q$3,Q$2,0)</f>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="R111">
-        <f>IF($C109=R$3,R$2,0)</f>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="S111">
-        <f>IF(ISBLANK(C109),-J111,0)</f>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="T111">
-        <f t="shared" si="3"/>
-        <v>40</v>
+        <f t="shared" si="71"/>
+        <v>34</v>
       </c>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.2">
@@ -7780,51 +7789,51 @@
         <v>7</v>
       </c>
       <c r="D112">
-        <f t="shared" si="2"/>
-        <v>150</v>
+        <f t="shared" si="66"/>
+        <v>125</v>
       </c>
       <c r="J112">
-        <f>IF($C110=J$3,J$2,0)</f>
+        <f t="shared" ref="J112:R112" si="116">IF($C110=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K112">
-        <f>IF($C110=K$3,K$2,0)</f>
+        <f t="shared" si="116"/>
         <v>5</v>
       </c>
       <c r="L112">
-        <f>IF($C110=L$3,L$2,0)</f>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="M112">
-        <f>IF($C110=M$3,M$2,0)</f>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="N112">
-        <f>IF($C110=N$3,N$2,0)</f>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="O112">
-        <f>IF($C110=O$3,O$2,0)</f>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="P112">
-        <f>IF($C110=P$3,P$2,0)</f>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="Q112">
-        <f>IF($C110=Q$3,Q$2,0)</f>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="R112">
-        <f>IF($C110=R$3,R$2,0)</f>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="S112">
-        <f>IF(ISBLANK(C110),-J112,0)</f>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="T112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="71"/>
         <v>5</v>
       </c>
     </row>
@@ -7839,51 +7848,51 @@
         <v>0</v>
       </c>
       <c r="D113">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="66"/>
+        <v>0.3</v>
       </c>
       <c r="J113">
-        <f>IF($C111=J$3,J$2,0)</f>
+        <f t="shared" ref="J113:R113" si="117">IF($C111=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K113">
-        <f>IF($C111=K$3,K$2,0)</f>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="L113">
-        <f>IF($C111=L$3,L$2,0)</f>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="M113">
-        <f>IF($C111=M$3,M$2,0)</f>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="N113">
-        <f>IF($C111=N$3,N$2,0)</f>
+        <f t="shared" si="117"/>
         <v>4</v>
       </c>
       <c r="O113">
-        <f>IF($C111=O$3,O$2,0)</f>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="P113">
-        <f>IF($C111=P$3,P$2,0)</f>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="Q113">
-        <f>IF($C111=Q$3,Q$2,0)</f>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="R113">
-        <f>IF($C111=R$3,R$2,0)</f>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="S113">
-        <f>IF(ISBLANK(C111),-J113,0)</f>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="T113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="71"/>
         <v>4</v>
       </c>
     </row>
@@ -7898,52 +7907,52 @@
         <v>7</v>
       </c>
       <c r="D114">
-        <f t="shared" si="2"/>
-        <v>150</v>
+        <f t="shared" si="66"/>
+        <v>125</v>
       </c>
       <c r="J114">
-        <f>IF($C112=J$3,J$2,0)</f>
+        <f t="shared" ref="J114:R114" si="118">IF($C112=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K114">
-        <f>IF($C112=K$3,K$2,0)</f>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="L114">
-        <f>IF($C112=L$3,L$2,0)</f>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="M114">
-        <f>IF($C112=M$3,M$2,0)</f>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="N114">
-        <f>IF($C112=N$3,N$2,0)</f>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="O114">
-        <f>IF($C112=O$3,O$2,0)</f>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="P114">
-        <f>IF($C112=P$3,P$2,0)</f>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="Q114">
-        <f>IF($C112=Q$3,Q$2,0)</f>
-        <v>150</v>
+        <f t="shared" si="118"/>
+        <v>125</v>
       </c>
       <c r="R114">
-        <f>IF($C112=R$3,R$2,0)</f>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="S114">
-        <f>IF(ISBLANK(C112),-J114,0)</f>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="T114">
-        <f t="shared" si="3"/>
-        <v>150</v>
+        <f t="shared" si="71"/>
+        <v>125</v>
       </c>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.2">
@@ -7957,52 +7966,52 @@
         <v>1</v>
       </c>
       <c r="D115">
-        <f t="shared" si="2"/>
+        <f t="shared" si="66"/>
         <v>5</v>
       </c>
       <c r="J115">
-        <f>IF($C113=J$3,J$2,0)</f>
-        <v>0.5</v>
+        <f t="shared" ref="J115:R115" si="119">IF($C113=J$3,J$2,0)</f>
+        <v>0.3</v>
       </c>
       <c r="K115">
-        <f>IF($C113=K$3,K$2,0)</f>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="L115">
-        <f>IF($C113=L$3,L$2,0)</f>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="M115">
-        <f>IF($C113=M$3,M$2,0)</f>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="N115">
-        <f>IF($C113=N$3,N$2,0)</f>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="O115">
-        <f>IF($C113=O$3,O$2,0)</f>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="P115">
-        <f>IF($C113=P$3,P$2,0)</f>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="Q115">
-        <f>IF($C113=Q$3,Q$2,0)</f>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="R115">
-        <f>IF($C113=R$3,R$2,0)</f>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="S115">
-        <f>IF(ISBLANK(C113),-J115,0)</f>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="T115">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
+        <f t="shared" si="71"/>
+        <v>0.3</v>
       </c>
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.2">
@@ -8016,52 +8025,52 @@
         <v>5</v>
       </c>
       <c r="D116">
-        <f t="shared" si="2"/>
-        <v>15</v>
+        <f t="shared" si="66"/>
+        <v>10</v>
       </c>
       <c r="J116">
-        <f>IF($C114=J$3,J$2,0)</f>
+        <f t="shared" ref="J116:R116" si="120">IF($C114=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K116">
-        <f>IF($C114=K$3,K$2,0)</f>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="L116">
-        <f>IF($C114=L$3,L$2,0)</f>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="M116">
-        <f>IF($C114=M$3,M$2,0)</f>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="N116">
-        <f>IF($C114=N$3,N$2,0)</f>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="O116">
-        <f>IF($C114=O$3,O$2,0)</f>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="P116">
-        <f>IF($C114=P$3,P$2,0)</f>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="Q116">
-        <f>IF($C114=Q$3,Q$2,0)</f>
-        <v>150</v>
+        <f t="shared" si="120"/>
+        <v>125</v>
       </c>
       <c r="R116">
-        <f>IF($C114=R$3,R$2,0)</f>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="S116">
-        <f>IF(ISBLANK(C114),-J116,0)</f>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="T116">
-        <f t="shared" si="3"/>
-        <v>150</v>
+        <f t="shared" si="71"/>
+        <v>125</v>
       </c>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.2">
@@ -8075,51 +8084,51 @@
         <v>8</v>
       </c>
       <c r="D117">
-        <f t="shared" si="2"/>
+        <f t="shared" si="66"/>
         <v>1000</v>
       </c>
       <c r="J117">
-        <f>IF($C115=J$3,J$2,0)</f>
+        <f t="shared" ref="J117:R117" si="121">IF($C115=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K117">
-        <f>IF($C115=K$3,K$2,0)</f>
+        <f t="shared" si="121"/>
         <v>5</v>
       </c>
       <c r="L117">
-        <f>IF($C115=L$3,L$2,0)</f>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="M117">
-        <f>IF($C115=M$3,M$2,0)</f>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="N117">
-        <f>IF($C115=N$3,N$2,0)</f>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="O117">
-        <f>IF($C115=O$3,O$2,0)</f>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="P117">
-        <f>IF($C115=P$3,P$2,0)</f>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="Q117">
-        <f>IF($C115=Q$3,Q$2,0)</f>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="R117">
-        <f>IF($C115=R$3,R$2,0)</f>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="S117">
-        <f>IF(ISBLANK(C115),-J117,0)</f>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="T117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="71"/>
         <v>5</v>
       </c>
     </row>
@@ -8134,52 +8143,52 @@
         <v>7</v>
       </c>
       <c r="D118">
-        <f t="shared" si="2"/>
-        <v>150</v>
+        <f t="shared" si="66"/>
+        <v>125</v>
       </c>
       <c r="J118">
-        <f>IF($C116=J$3,J$2,0)</f>
+        <f t="shared" ref="J118:R118" si="122">IF($C116=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K118">
-        <f>IF($C116=K$3,K$2,0)</f>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="L118">
-        <f>IF($C116=L$3,L$2,0)</f>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="M118">
-        <f>IF($C116=M$3,M$2,0)</f>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="N118">
-        <f>IF($C116=N$3,N$2,0)</f>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="O118">
-        <f>IF($C116=O$3,O$2,0)</f>
-        <v>15</v>
+        <f t="shared" si="122"/>
+        <v>10</v>
       </c>
       <c r="P118">
-        <f>IF($C116=P$3,P$2,0)</f>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="Q118">
-        <f>IF($C116=Q$3,Q$2,0)</f>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="R118">
-        <f>IF($C116=R$3,R$2,0)</f>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="S118">
-        <f>IF(ISBLANK(C116),-J118,0)</f>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="T118">
-        <f t="shared" si="3"/>
-        <v>15</v>
+        <f t="shared" si="71"/>
+        <v>10</v>
       </c>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.2">
@@ -8193,51 +8202,51 @@
         <v>1</v>
       </c>
       <c r="D119">
-        <f t="shared" si="2"/>
+        <f t="shared" si="66"/>
         <v>5</v>
       </c>
       <c r="J119">
-        <f>IF($C117=J$3,J$2,0)</f>
+        <f t="shared" ref="J119:R119" si="123">IF($C117=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K119">
-        <f>IF($C117=K$3,K$2,0)</f>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="L119">
-        <f>IF($C117=L$3,L$2,0)</f>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="M119">
-        <f>IF($C117=M$3,M$2,0)</f>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="N119">
-        <f>IF($C117=N$3,N$2,0)</f>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="O119">
-        <f>IF($C117=O$3,O$2,0)</f>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="P119">
-        <f>IF($C117=P$3,P$2,0)</f>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="Q119">
-        <f>IF($C117=Q$3,Q$2,0)</f>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="R119">
-        <f>IF($C117=R$3,R$2,0)</f>
+        <f t="shared" si="123"/>
         <v>1000</v>
       </c>
       <c r="S119">
-        <f>IF(ISBLANK(C117),-J119,0)</f>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="T119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="71"/>
         <v>1000</v>
       </c>
     </row>
@@ -8252,52 +8261,52 @@
         <v>5</v>
       </c>
       <c r="D120">
-        <f t="shared" si="2"/>
-        <v>15</v>
+        <f t="shared" si="66"/>
+        <v>10</v>
       </c>
       <c r="J120">
-        <f>IF($C118=J$3,J$2,0)</f>
+        <f t="shared" ref="J120:R120" si="124">IF($C118=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K120">
-        <f>IF($C118=K$3,K$2,0)</f>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="L120">
-        <f>IF($C118=L$3,L$2,0)</f>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="M120">
-        <f>IF($C118=M$3,M$2,0)</f>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="N120">
-        <f>IF($C118=N$3,N$2,0)</f>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="O120">
-        <f>IF($C118=O$3,O$2,0)</f>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="P120">
-        <f>IF($C118=P$3,P$2,0)</f>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="Q120">
-        <f>IF($C118=Q$3,Q$2,0)</f>
-        <v>150</v>
+        <f t="shared" si="124"/>
+        <v>125</v>
       </c>
       <c r="R120">
-        <f>IF($C118=R$3,R$2,0)</f>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="S120">
-        <f>IF(ISBLANK(C118),-J120,0)</f>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="T120">
-        <f t="shared" si="3"/>
-        <v>150</v>
+        <f t="shared" si="71"/>
+        <v>125</v>
       </c>
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.2">
@@ -8311,51 +8320,51 @@
         <v>1</v>
       </c>
       <c r="D121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="66"/>
         <v>5</v>
       </c>
       <c r="J121">
-        <f>IF($C119=J$3,J$2,0)</f>
+        <f t="shared" ref="J121:R121" si="125">IF($C119=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K121">
-        <f>IF($C119=K$3,K$2,0)</f>
+        <f t="shared" si="125"/>
         <v>5</v>
       </c>
       <c r="L121">
-        <f>IF($C119=L$3,L$2,0)</f>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="M121">
-        <f>IF($C119=M$3,M$2,0)</f>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="N121">
-        <f>IF($C119=N$3,N$2,0)</f>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="O121">
-        <f>IF($C119=O$3,O$2,0)</f>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="P121">
-        <f>IF($C119=P$3,P$2,0)</f>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="Q121">
-        <f>IF($C119=Q$3,Q$2,0)</f>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="R121">
-        <f>IF($C119=R$3,R$2,0)</f>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="S121">
-        <f>IF(ISBLANK(C119),-J121,0)</f>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="T121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="71"/>
         <v>5</v>
       </c>
     </row>
@@ -8370,52 +8379,52 @@
         <v>4</v>
       </c>
       <c r="D122">
-        <f t="shared" si="2"/>
+        <f t="shared" si="66"/>
         <v>4</v>
       </c>
       <c r="J122">
-        <f>IF($C120=J$3,J$2,0)</f>
+        <f t="shared" ref="J122:R122" si="126">IF($C120=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K122">
-        <f>IF($C120=K$3,K$2,0)</f>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="L122">
-        <f>IF($C120=L$3,L$2,0)</f>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="M122">
-        <f>IF($C120=M$3,M$2,0)</f>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="N122">
-        <f>IF($C120=N$3,N$2,0)</f>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="O122">
-        <f>IF($C120=O$3,O$2,0)</f>
-        <v>15</v>
+        <f t="shared" si="126"/>
+        <v>10</v>
       </c>
       <c r="P122">
-        <f>IF($C120=P$3,P$2,0)</f>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="Q122">
-        <f>IF($C120=Q$3,Q$2,0)</f>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="R122">
-        <f>IF($C120=R$3,R$2,0)</f>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="S122">
-        <f>IF(ISBLANK(C120),-J122,0)</f>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="T122">
-        <f t="shared" si="3"/>
-        <v>15</v>
+        <f t="shared" si="71"/>
+        <v>10</v>
       </c>
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.2">
@@ -8429,51 +8438,51 @@
         <v>4</v>
       </c>
       <c r="D123">
-        <f t="shared" si="2"/>
+        <f t="shared" si="66"/>
         <v>4</v>
       </c>
       <c r="J123">
-        <f>IF($C121=J$3,J$2,0)</f>
+        <f t="shared" ref="J123:R123" si="127">IF($C121=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K123">
-        <f>IF($C121=K$3,K$2,0)</f>
+        <f t="shared" si="127"/>
         <v>5</v>
       </c>
       <c r="L123">
-        <f>IF($C121=L$3,L$2,0)</f>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="M123">
-        <f>IF($C121=M$3,M$2,0)</f>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="N123">
-        <f>IF($C121=N$3,N$2,0)</f>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="O123">
-        <f>IF($C121=O$3,O$2,0)</f>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="P123">
-        <f>IF($C121=P$3,P$2,0)</f>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="Q123">
-        <f>IF($C121=Q$3,Q$2,0)</f>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="R123">
-        <f>IF($C121=R$3,R$2,0)</f>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="S123">
-        <f>IF(ISBLANK(C121),-J123,0)</f>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="T123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="71"/>
         <v>5</v>
       </c>
     </row>
@@ -8488,51 +8497,51 @@
         <v>1</v>
       </c>
       <c r="D124">
-        <f t="shared" si="2"/>
+        <f t="shared" si="66"/>
         <v>5</v>
       </c>
       <c r="J124">
-        <f>IF($C122=J$3,J$2,0)</f>
+        <f t="shared" ref="J124:R124" si="128">IF($C122=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K124">
-        <f>IF($C122=K$3,K$2,0)</f>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="L124">
-        <f>IF($C122=L$3,L$2,0)</f>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="M124">
-        <f>IF($C122=M$3,M$2,0)</f>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="N124">
-        <f>IF($C122=N$3,N$2,0)</f>
+        <f t="shared" si="128"/>
         <v>4</v>
       </c>
       <c r="O124">
-        <f>IF($C122=O$3,O$2,0)</f>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="P124">
-        <f>IF($C122=P$3,P$2,0)</f>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="Q124">
-        <f>IF($C122=Q$3,Q$2,0)</f>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="R124">
-        <f>IF($C122=R$3,R$2,0)</f>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="S124">
-        <f>IF(ISBLANK(C122),-J124,0)</f>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="T124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="71"/>
         <v>4</v>
       </c>
     </row>
@@ -8548,280 +8557,280 @@
       </c>
       <c r="D125">
         <f>IF(T127&gt;0,T127,"")</f>
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="J125">
-        <f>IF($C123=J$3,J$2,0)</f>
+        <f t="shared" ref="J125:R125" si="129">IF($C123=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K125">
-        <f>IF($C123=K$3,K$2,0)</f>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="L125">
-        <f>IF($C123=L$3,L$2,0)</f>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="M125">
-        <f>IF($C123=M$3,M$2,0)</f>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="N125">
-        <f>IF($C123=N$3,N$2,0)</f>
+        <f t="shared" si="129"/>
         <v>4</v>
       </c>
       <c r="O125">
-        <f>IF($C123=O$3,O$2,0)</f>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="P125">
-        <f>IF($C123=P$3,P$2,0)</f>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="Q125">
-        <f>IF($C123=Q$3,Q$2,0)</f>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="R125">
-        <f>IF($C123=R$3,R$2,0)</f>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="S125">
-        <f>IF(ISBLANK(C123),-J125,0)</f>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="T125">
-        <f t="shared" si="3"/>
+        <f t="shared" si="71"/>
         <v>4</v>
       </c>
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.2">
       <c r="J126">
-        <f>IF($C124=J$3,J$2,0)</f>
+        <f t="shared" ref="J126:R126" si="130">IF($C124=J$3,J$2,0)</f>
         <v>0</v>
       </c>
       <c r="K126">
-        <f>IF($C124=K$3,K$2,0)</f>
+        <f t="shared" si="130"/>
         <v>5</v>
       </c>
       <c r="L126">
-        <f>IF($C124=L$3,L$2,0)</f>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="M126">
-        <f>IF($C124=M$3,M$2,0)</f>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="N126">
-        <f>IF($C124=N$3,N$2,0)</f>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="O126">
-        <f>IF($C124=O$3,O$2,0)</f>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="P126">
-        <f>IF($C124=P$3,P$2,0)</f>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="Q126">
-        <f>IF($C124=Q$3,Q$2,0)</f>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="R126">
-        <f>IF($C124=R$3,R$2,0)</f>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="S126">
-        <f>IF(ISBLANK(C124),-J126,0)</f>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="T126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="71"/>
         <v>5</v>
       </c>
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.2">
       <c r="J127">
-        <f>IF($C125=J$3,J$2,0)</f>
-        <v>0.5</v>
+        <f t="shared" ref="J127:R127" si="131">IF($C125=J$3,J$2,0)</f>
+        <v>0.3</v>
       </c>
       <c r="K127">
-        <f>IF($C125=K$3,K$2,0)</f>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="L127">
-        <f>IF($C125=L$3,L$2,0)</f>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="M127">
-        <f>IF($C125=M$3,M$2,0)</f>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="N127">
-        <f>IF($C125=N$3,N$2,0)</f>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="O127">
-        <f>IF($C125=O$3,O$2,0)</f>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="P127">
-        <f>IF($C125=P$3,P$2,0)</f>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="Q127">
-        <f>IF($C125=Q$3,Q$2,0)</f>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="R127">
-        <f>IF($C125=R$3,R$2,0)</f>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="S127">
-        <f>IF(ISBLANK(C125),-J127,0)</f>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="T127">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
+        <f t="shared" si="71"/>
+        <v>0.3</v>
       </c>
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.2">
       <c r="J128">
-        <f>IF($C126=J$3,J$2,0)</f>
-        <v>0.5</v>
+        <f t="shared" ref="J128:R128" si="132">IF($C126=J$3,J$2,0)</f>
+        <v>0.3</v>
       </c>
       <c r="K128">
-        <f>IF($C126=K$3,K$2,0)</f>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="L128">
-        <f>IF($C126=L$3,L$2,0)</f>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="M128">
-        <f>IF($C126=M$3,M$2,0)</f>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="N128">
-        <f>IF($C126=N$3,N$2,0)</f>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="O128">
-        <f>IF($C126=O$3,O$2,0)</f>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="P128">
-        <f>IF($C126=P$3,P$2,0)</f>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="Q128">
-        <f>IF($C126=Q$3,Q$2,0)</f>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="R128">
-        <f>IF($C126=R$3,R$2,0)</f>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="S128">
-        <f>IF(ISBLANK(C126),-J128,0)</f>
-        <v>-0.5</v>
+        <f t="shared" si="104"/>
+        <v>-0.3</v>
       </c>
       <c r="T128">
-        <f t="shared" si="3"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="10:20" x14ac:dyDescent="0.2">
       <c r="J129">
-        <f>IF($C127=J$3,J$2,0)</f>
-        <v>0.5</v>
+        <f t="shared" ref="J129:R129" si="133">IF($C127=J$3,J$2,0)</f>
+        <v>0.3</v>
       </c>
       <c r="K129">
-        <f>IF($C127=K$3,K$2,0)</f>
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="L129">
-        <f>IF($C127=L$3,L$2,0)</f>
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="M129">
-        <f>IF($C127=M$3,M$2,0)</f>
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="N129">
-        <f>IF($C127=N$3,N$2,0)</f>
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="O129">
-        <f>IF($C127=O$3,O$2,0)</f>
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="P129">
-        <f>IF($C127=P$3,P$2,0)</f>
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="Q129">
-        <f>IF($C127=Q$3,Q$2,0)</f>
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="R129">
-        <f>IF($C127=R$3,R$2,0)</f>
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="S129">
-        <f>IF(ISBLANK(C127),-J129,0)</f>
-        <v>-0.5</v>
+        <f t="shared" si="104"/>
+        <v>-0.3</v>
       </c>
       <c r="T129">
-        <f t="shared" ref="T129:T130" si="4">SUM(J129:S129)</f>
+        <f t="shared" ref="T129:T130" si="134">SUM(J129:S129)</f>
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="10:20" x14ac:dyDescent="0.2">
       <c r="J130">
-        <f>IF($C128=J$3,J$2,0)</f>
-        <v>0.5</v>
+        <f t="shared" ref="J130:R130" si="135">IF($C128=J$3,J$2,0)</f>
+        <v>0.3</v>
       </c>
       <c r="K130">
-        <f>IF($C128=K$3,K$2,0)</f>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="L130">
-        <f>IF($C128=L$3,L$2,0)</f>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="M130">
-        <f>IF($C128=M$3,M$2,0)</f>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="N130">
-        <f>IF($C128=N$3,N$2,0)</f>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="O130">
-        <f>IF($C128=O$3,O$2,0)</f>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="P130">
-        <f>IF($C128=P$3,P$2,0)</f>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="Q130">
-        <f>IF($C128=Q$3,Q$2,0)</f>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="R130">
-        <f>IF($C128=R$3,R$2,0)</f>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="S130">
-        <f>IF(ISBLANK(C128),-J130,0)</f>
-        <v>-0.5</v>
+        <f t="shared" si="104"/>
+        <v>-0.3</v>
       </c>
       <c r="T130">
-        <f t="shared" si="4"/>
+        <f t="shared" si="134"/>
         <v>0</v>
       </c>
     </row>
